--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/5_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/5_11R22.xlsx
@@ -692,13 +692,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1656462650631509</v>
+        <v>0.1426533907853932</v>
       </c>
       <c r="F2">
-        <v>0.01891421794014306</v>
+        <v>0.02398802410843653</v>
       </c>
       <c r="G2">
-        <v>0.1402661284630736</v>
+        <v>0.1221279277048255</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -710,70 +710,70 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.03538371208345138</v>
+        <v>0.03730725872567937</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.0004565281849256744</v>
       </c>
       <c r="M2">
-        <v>0.07663003972842514</v>
+        <v>0.07066405221446344</v>
       </c>
       <c r="N2">
-        <v>0.0127390276860864</v>
+        <v>0.01899401475488815</v>
       </c>
       <c r="O2">
-        <v>0.1065018161950594</v>
+        <v>0.09482200119157835</v>
       </c>
       <c r="P2">
-        <v>0.001540651945965938</v>
+        <v>0.009937647114397683</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.006125451292251273</v>
       </c>
       <c r="R2">
-        <v>0.002369245174667706</v>
+        <v>0.01060774830386389</v>
       </c>
       <c r="S2">
-        <v>0.02688203546836454</v>
+        <v>0.03043176974642149</v>
       </c>
       <c r="T2">
-        <v>0.1786429927594131</v>
+        <v>0.1531641243839275</v>
       </c>
       <c r="U2">
-        <v>0.01024907496076146</v>
+        <v>0.01698033635979786</v>
       </c>
       <c r="V2">
-        <v>0.06015835209013649</v>
+        <v>0.05734304367058871</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.0006221657138783021</v>
       </c>
       <c r="X2">
-        <v>0.07441437585216196</v>
+        <v>0.06887219711896923</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.00189176645968958</v>
       </c>
       <c r="Z2">
-        <v>0.01460800538169939</v>
+        <v>0.02050549726950914</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.02040698425284564</v>
+        <v>0.02519525637523208</v>
       </c>
       <c r="AC2">
-        <v>0.02197544313845625</v>
+        <v>0.02646370285592955</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.02566108857327365</v>
+        <v>0.0294443636968242</v>
       </c>
       <c r="AF2">
-        <v>0.0003772458029705327</v>
+        <v>0.008996775510275381</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -782,10 +782,10 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.006633297439893414</v>
+        <v>0.01405617920565954</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>0.008348777252594102</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -802,16 +802,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1584335508871076</v>
+        <v>0.13673802100952</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.0009012011729132739</v>
       </c>
       <c r="G3">
-        <v>0.1995789899660071</v>
+        <v>0.1701626241444427</v>
       </c>
       <c r="H3">
-        <v>0.001362147018642461</v>
+        <v>0.009140662573722534</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -820,70 +820,70 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.009913417290125516</v>
+        <v>0.01608730894625721</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.07312054470330856</v>
+        <v>0.06743378127416032</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.0003022002264754716</v>
       </c>
       <c r="O3">
-        <v>0.1035987897282553</v>
+        <v>0.09219286191622851</v>
       </c>
       <c r="P3">
-        <v>0.02013043396261976</v>
+        <v>0.02438712868681598</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.00690977768996138</v>
       </c>
       <c r="R3">
-        <v>0.002360511246137724</v>
+        <v>0.009951686318642195</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.007735480774143798</v>
       </c>
       <c r="T3">
-        <v>0.1504084589494623</v>
+        <v>0.1302188169581864</v>
       </c>
       <c r="U3">
-        <v>0.05469432125886871</v>
+        <v>0.05246519132364852</v>
       </c>
       <c r="V3">
-        <v>0.05185716032338263</v>
+        <v>0.05016041634927815</v>
       </c>
       <c r="W3">
-        <v>0.01554537377963485</v>
+        <v>0.02066244326853351</v>
       </c>
       <c r="X3">
-        <v>0.05523583386021436</v>
+        <v>0.05290509047645207</v>
       </c>
       <c r="Y3">
-        <v>0.004471439918987542</v>
+        <v>0.01166650464883028</v>
       </c>
       <c r="Z3">
-        <v>0.01763831625124962</v>
+        <v>0.02236265046194327</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>0.004121039775798526</v>
       </c>
       <c r="AB3">
-        <v>0.01156701428183684</v>
+        <v>0.01743061271042575</v>
       </c>
       <c r="AC3">
-        <v>0.03284214837770186</v>
+        <v>0.03471352254723507</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.03129189432493851</v>
+        <v>0.03345416968500025</v>
       </c>
       <c r="AF3">
-        <v>0.005583998020003029</v>
+        <v>0.01257029408025857</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.006995352566921152</v>
       </c>
       <c r="AJ3">
-        <v>0.0003656558515156698</v>
+        <v>0.008331160414204935</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -912,16 +912,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1312774431354588</v>
+        <v>0.1210169907001225</v>
       </c>
       <c r="F4">
-        <v>0.03968703550565983</v>
+        <v>0.04154100763276193</v>
       </c>
       <c r="G4">
-        <v>0.2420610590425881</v>
+        <v>0.2171475463972171</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.799507872215084E-05</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -930,70 +930,70 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.001267604072463273</v>
+        <v>0.008203214286715945</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0409509984451806</v>
+        <v>0.04263778948774782</v>
       </c>
       <c r="N4">
-        <v>0.01806146304687464</v>
+        <v>0.02277579329390569</v>
       </c>
       <c r="O4">
-        <v>0.1162658568293875</v>
+        <v>0.1079909477994533</v>
       </c>
       <c r="P4">
-        <v>0.03772711242566655</v>
+        <v>0.03984031847163851</v>
       </c>
       <c r="Q4">
-        <v>0.004341602378843682</v>
+        <v>0.01087062284694926</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.005624785990755623</v>
       </c>
       <c r="S4">
-        <v>0.01172411228093576</v>
+        <v>0.01727666740070664</v>
       </c>
       <c r="T4">
-        <v>0.1566624532229992</v>
+        <v>0.1430443916484478</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.0007543702772555734</v>
       </c>
       <c r="V4">
-        <v>0.07590676013704407</v>
+        <v>0.07297004366395222</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0.04626009456505411</v>
+        <v>0.04724466529762003</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.01047255049344729</v>
+        <v>0.0161906464296871</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.03749561739686977</v>
+        <v>0.03963944268710007</v>
       </c>
       <c r="AC4">
-        <v>0.02022495593375254</v>
+        <v>0.02465312661399368</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.009613281087774329</v>
+        <v>0.01544503034932645</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.0001819740812038489</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -1002,10 +1002,10 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.004260875366659827</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>0.0006617541980565202</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -1019,16 +1019,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0156798898124956</v>
+        <v>0.02112885300370837</v>
       </c>
       <c r="E5">
-        <v>0.04709512281393469</v>
+        <v>0.04694853760304329</v>
       </c>
       <c r="F5">
-        <v>0.1127214417714137</v>
+        <v>0.1008857742557156</v>
       </c>
       <c r="G5">
-        <v>0.1607947032476938</v>
+        <v>0.1403964297686653</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1040,67 +1040,67 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.009990672274786977</v>
+        <v>0.01645297482594943</v>
       </c>
       <c r="L5">
-        <v>0.003668509616462544</v>
+        <v>0.01125688903482536</v>
       </c>
       <c r="M5">
-        <v>0.03214211122080417</v>
+        <v>0.03465889317713237</v>
       </c>
       <c r="N5">
-        <v>0.08025184626022298</v>
+        <v>0.07419952573645361</v>
       </c>
       <c r="O5">
-        <v>0.111586899511039</v>
+        <v>0.09995331186315121</v>
       </c>
       <c r="P5">
-        <v>0.01692461455468312</v>
+        <v>0.022151872640545</v>
       </c>
       <c r="Q5">
-        <v>0.01389966354529459</v>
+        <v>0.01966571310808907</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.007503919536361285</v>
       </c>
       <c r="S5">
-        <v>0.03754171994841157</v>
+        <v>0.03909674644087397</v>
       </c>
       <c r="T5">
-        <v>0.1542871907747676</v>
+        <v>0.135048007887806</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.07605486994230971</v>
+        <v>0.07075009708525008</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0.04279809409171675</v>
+        <v>0.04341687745852461</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.001776422830562453</v>
       </c>
       <c r="Z5">
-        <v>0.01652628740133518</v>
+        <v>0.02182449383465412</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.04981492422815535</v>
+        <v>0.04918389949530701</v>
       </c>
       <c r="AC5">
-        <v>0.006677899144690388</v>
+        <v>0.01373025883131309</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.007272498041251277</v>
       </c>
       <c r="AE5">
-        <v>0.01154353983978256</v>
+        <v>0.01772925218957384</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.004968751351243731</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1129,100 +1129,100 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01450088082007545</v>
+        <v>0.02059627655294436</v>
       </c>
       <c r="E6">
-        <v>0.1014449834315055</v>
+        <v>0.09238363282620322</v>
       </c>
       <c r="F6">
-        <v>0.1113014302721265</v>
+        <v>0.1005218301240505</v>
       </c>
       <c r="G6">
-        <v>0.1945617686842138</v>
+        <v>0.1692676035289835</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.001643491730117434</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.007919557160754053</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.03733618581123366</v>
+        <v>0.03945076036233033</v>
       </c>
       <c r="N6">
-        <v>0.02606352976754904</v>
+        <v>0.03014323804341566</v>
       </c>
       <c r="O6">
-        <v>0.1032274562563003</v>
+        <v>0.09385537165468733</v>
       </c>
       <c r="P6">
-        <v>0.007133759820122649</v>
+        <v>0.0145134471942307</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.0008916518946685672</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.05265066697613795</v>
+        <v>0.05209550661313086</v>
       </c>
       <c r="T6">
-        <v>0.1704250963416689</v>
+        <v>0.1493386164595673</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.05933022660766292</v>
+        <v>0.05761063544434985</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.003187738580340944</v>
       </c>
       <c r="X6">
-        <v>0.05613023320179465</v>
+        <v>0.05496848882601274</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.001541329399181927</v>
       </c>
       <c r="Z6">
-        <v>0.0101140619393113</v>
+        <v>0.01697420075434644</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.002786900253553824</v>
       </c>
       <c r="AB6">
-        <v>0.03458074955068598</v>
+        <v>0.0371756723623055</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.00779816488965705</v>
       </c>
       <c r="AD6">
-        <v>0.00226625502583912</v>
+        <v>0.0104944822462494</v>
       </c>
       <c r="AE6">
-        <v>0.01589603095432648</v>
+        <v>0.02174821367960344</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.001777890782170265</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.0001846939131714255</v>
       </c>
       <c r="AI6">
-        <v>0.003036684539445448</v>
+        <v>0.01113060472397361</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1242,25 +1242,25 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2177472746633094</v>
+        <v>0.201096874088022</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.004876771882696797</v>
       </c>
       <c r="G7">
-        <v>0.3122708254555271</v>
+        <v>0.2859974997670756</v>
       </c>
       <c r="H7">
-        <v>0.02943225349768794</v>
+        <v>0.03195317405002255</v>
       </c>
       <c r="I7">
-        <v>0.02471325295623115</v>
+        <v>0.02771458911334178</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.003274810746261334</v>
+        <v>0.008458677311935735</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.001401100076967161</v>
       </c>
       <c r="O7">
-        <v>0.08555569579247375</v>
+        <v>0.08236299600607497</v>
       </c>
       <c r="P7">
-        <v>0.1176561783289269</v>
+        <v>0.1111955041916307</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.004917800610347141</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1287,34 +1287,34 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0.1159630879062258</v>
+        <v>0.1096747780338235</v>
       </c>
       <c r="U7">
-        <v>0.03320290049882216</v>
+        <v>0.03533995212731733</v>
       </c>
       <c r="V7">
-        <v>0.01256086402366441</v>
+        <v>0.01679936835382851</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>0.0252017337013596</v>
+        <v>0.02815334030863638</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>0.0001001550244090473</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>0.004629853122793118</v>
       </c>
       <c r="AA7">
-        <v>0.01315908094817632</v>
+        <v>0.01733668408897799</v>
       </c>
       <c r="AB7">
-        <v>0.005528568030617933</v>
+        <v>0.01048299190831835</v>
       </c>
       <c r="AC7">
-        <v>0.003733473450716054</v>
+        <v>0.008870646077999679</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -1323,16 +1323,16 @@
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>0.002131023319557395</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>0.003907099392257345</v>
       </c>
       <c r="AH7">
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>0.002599121143967298</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -1352,22 +1352,22 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.08796612086207516</v>
+        <v>0.08590383156008329</v>
       </c>
       <c r="F8">
-        <v>0.03048073962739156</v>
+        <v>0.03121419927362408</v>
       </c>
       <c r="G8">
-        <v>0.1881692482821852</v>
+        <v>0.1812336715099427</v>
       </c>
       <c r="H8">
-        <v>0.1506424136547791</v>
+        <v>0.1455319201678233</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.007258747449028434</v>
+        <v>0.00912158744925542</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1376,64 +1376,64 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.007245021834712997</v>
+        <v>0.009108529367640679</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0579463172822134</v>
+        <v>0.05734401367539622</v>
       </c>
       <c r="P8">
-        <v>0.08344234455842464</v>
+        <v>0.08160006498014498</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0.0006767869708920335</v>
+        <v>0.002859734600028712</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0.1079833379501952</v>
+        <v>0.1049475296000818</v>
       </c>
       <c r="U8">
-        <v>0.1265772132867308</v>
+        <v>0.1226371088129941</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0.03964559714888138</v>
+        <v>0.03993333233045867</v>
       </c>
       <c r="X8">
-        <v>0.01179784181815318</v>
+        <v>0.01343992711456139</v>
       </c>
       <c r="Y8">
-        <v>0.02230457162921387</v>
+        <v>0.0234356717292531</v>
       </c>
       <c r="Z8">
-        <v>0.00237785284070277</v>
+        <v>0.004478070686819163</v>
       </c>
       <c r="AA8">
-        <v>0.001024178176764584</v>
+        <v>0.003190230752279271</v>
       </c>
       <c r="AB8">
-        <v>0.006493039255885038</v>
+        <v>0.008393118773875469</v>
       </c>
       <c r="AC8">
-        <v>0.03051398390071728</v>
+        <v>0.03124582674211719</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>0.002100972103267585</v>
       </c>
       <c r="AE8">
-        <v>0.009719143861715839</v>
+        <v>0.01146232473234771</v>
       </c>
       <c r="AF8">
-        <v>0.02761297682066816</v>
+        <v>0.02848590748854917</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="AJ8">
-        <v>0.0001225227886696918</v>
+        <v>0.002332426549455918</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -1462,100 +1462,100 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.05066149589664281</v>
+        <v>0.04904800211577837</v>
       </c>
       <c r="F9">
-        <v>0.001996619265919411</v>
+        <v>0.01153892008003639</v>
       </c>
       <c r="G9">
-        <v>0.1923609302853952</v>
+        <v>0.1582646708281458</v>
       </c>
       <c r="H9">
-        <v>0.1073529086261834</v>
+        <v>0.09274364049025165</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0005676085502243881</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.008763620362322642</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.0004334082514378281</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.000798057841898232</v>
       </c>
       <c r="M9">
-        <v>0.05704604353613165</v>
+        <v>0.05396897464773175</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.004442269345624537</v>
       </c>
       <c r="O9">
-        <v>0.17351450025861</v>
+        <v>0.143738541535356</v>
       </c>
       <c r="P9">
-        <v>0.03060801454400881</v>
+        <v>0.03359152242785299</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.004281651936204234</v>
       </c>
       <c r="R9">
-        <v>0.0592484362135818</v>
+        <v>0.05566649724170132</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.009210975812470715</v>
       </c>
       <c r="T9">
-        <v>0.09367357412772621</v>
+        <v>0.08220011679470293</v>
       </c>
       <c r="U9">
-        <v>0.09981273711921139</v>
+        <v>0.0869319559407418</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>0.006852350758533322</v>
       </c>
       <c r="W9">
-        <v>0.03857154104531314</v>
+        <v>0.03972951330570614</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>0.003659479444541399</v>
       </c>
       <c r="Y9">
-        <v>0.007679176821191654</v>
+        <v>0.01591882469031473</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.007618006792553994</v>
       </c>
       <c r="AA9">
-        <v>0.02519576170724682</v>
+        <v>0.02941995866960608</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>0.005372196384864389</v>
       </c>
       <c r="AC9">
-        <v>0.03237114860633827</v>
+        <v>0.03495048077240523</v>
       </c>
       <c r="AD9">
-        <v>0.001526625964834523</v>
+        <v>0.01117666667455847</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>0.001410212881976919</v>
       </c>
       <c r="AF9">
-        <v>0.02159131109861768</v>
+        <v>0.02664178182147049</v>
       </c>
       <c r="AG9">
-        <v>0.006789174883047189</v>
+        <v>0.01523284420457043</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>7.442038116616439E-06</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>4.198971593643905E-05</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>0.00577781764236376</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -1572,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1184757358391148</v>
+        <v>0.1036299280280062</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.008658467800106097</v>
       </c>
       <c r="G10">
-        <v>0.1605591295679529</v>
+        <v>0.1372541642550687</v>
       </c>
       <c r="H10">
-        <v>0.107510253924114</v>
+        <v>0.0948686109957036</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1596,76 +1596,76 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.02033785185127325</v>
+        <v>0.02521868070101121</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.003960714751108013</v>
       </c>
       <c r="O10">
-        <v>0.1195476078361589</v>
+        <v>0.1044863436836925</v>
       </c>
       <c r="P10">
-        <v>0.06661145210993635</v>
+        <v>0.06219085257952917</v>
       </c>
       <c r="Q10">
-        <v>0.003996067040549757</v>
+        <v>0.01216174816396036</v>
       </c>
       <c r="R10">
-        <v>0.01227863540426517</v>
+        <v>0.01877944247404447</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.1642657567058685</v>
+        <v>0.1402157245154882</v>
       </c>
       <c r="U10">
-        <v>0.09817408311663195</v>
+        <v>0.08740909823136433</v>
       </c>
       <c r="V10">
-        <v>0.007644282501656869</v>
+        <v>0.01507663804337204</v>
       </c>
       <c r="W10">
-        <v>0.01443926055501843</v>
+        <v>0.02050576167099831</v>
       </c>
       <c r="X10">
-        <v>0.0236987703621199</v>
+        <v>0.02790402301624314</v>
       </c>
       <c r="Y10">
-        <v>0.004070230204693479</v>
+        <v>0.01222100383536801</v>
       </c>
       <c r="Z10">
-        <v>0.01123152456643897</v>
+        <v>0.01794281075194886</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.001859115542649413</v>
+        <v>0.01045434399322833</v>
       </c>
       <c r="AC10">
-        <v>0.02890828572643859</v>
+        <v>0.03206637685032398</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>0.004876288927994828</v>
       </c>
       <c r="AE10">
-        <v>0.00799436500394362</v>
+        <v>0.01535635067376726</v>
       </c>
       <c r="AF10">
-        <v>0.028397592141175</v>
+        <v>0.03165833747352863</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>0.003804150301695851</v>
       </c>
       <c r="AH10">
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>0.002714746501290885</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>0.006585391781156929</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -1679,91 +1679,91 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01604993310975715</v>
+        <v>0.006354245366700436</v>
       </c>
       <c r="E11">
-        <v>0.07247708086920525</v>
+        <v>0.0788685652009822</v>
       </c>
       <c r="F11">
-        <v>0.0767351886610655</v>
+        <v>0.08434064384695808</v>
       </c>
       <c r="G11">
-        <v>0.1190398358534049</v>
+        <v>0.1387061901981486</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.01110536570533277</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.003399817108590234</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.01623532093124563</v>
+        <v>0.00659248657354126</v>
       </c>
       <c r="M11">
-        <v>0.02186606927205955</v>
+        <v>0.0138285405352403</v>
       </c>
       <c r="N11">
-        <v>0.1356703678603573</v>
+        <v>0.1600780256506056</v>
       </c>
       <c r="O11">
-        <v>0.08484514049413876</v>
+        <v>0.09476271308871989</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.03001933419920147</v>
+        <v>0.02430627127472123</v>
       </c>
       <c r="R11">
-        <v>0.007446444769076954</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0.06774298414684578</v>
+        <v>0.07278479493290022</v>
       </c>
       <c r="T11">
-        <v>0.1557058215044912</v>
+        <v>0.1858255133628901</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0.03039242345588678</v>
+        <v>0.0247857269048613</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0.03658041387830228</v>
+        <v>0.03273789061399324</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.01810083838736427</v>
+        <v>0.008989856188006172</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.05132448461145466</v>
+        <v>0.05168544162899323</v>
       </c>
       <c r="AC11">
-        <v>0.01829785542576376</v>
+        <v>0.00924304205868331</v>
       </c>
       <c r="AD11">
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.01475584315447184</v>
+        <v>0.004691215129695803</v>
       </c>
       <c r="AF11">
-        <v>0.01220943660198376</v>
+        <v>0.001418837444358807</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -1915,97 +1915,97 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1656462650631509</v>
+        <v>0.1426533907853932</v>
       </c>
       <c r="F2">
-        <v>0.184560483003294</v>
+        <v>0.1666414148938298</v>
       </c>
       <c r="G2">
-        <v>0.3248266114663676</v>
+        <v>0.2887693425986553</v>
       </c>
       <c r="H2">
-        <v>0.3248266114663676</v>
+        <v>0.2887693425986553</v>
       </c>
       <c r="I2">
-        <v>0.3248266114663676</v>
+        <v>0.2887693425986553</v>
       </c>
       <c r="J2">
-        <v>0.3248266114663676</v>
+        <v>0.2887693425986553</v>
       </c>
       <c r="K2">
-        <v>0.360210323549819</v>
+        <v>0.3260766013243346</v>
       </c>
       <c r="L2">
-        <v>0.360210323549819</v>
+        <v>0.3265331295092603</v>
       </c>
       <c r="M2">
-        <v>0.4368403632782441</v>
+        <v>0.3971971817237238</v>
       </c>
       <c r="N2">
-        <v>0.4495793909643305</v>
+        <v>0.4161911964786119</v>
       </c>
       <c r="O2">
-        <v>0.5560812071593899</v>
+        <v>0.5110131976701903</v>
       </c>
       <c r="P2">
-        <v>0.5576218591053559</v>
+        <v>0.520950844784588</v>
       </c>
       <c r="Q2">
-        <v>0.5576218591053559</v>
+        <v>0.5270762960768393</v>
       </c>
       <c r="R2">
-        <v>0.5599911042800236</v>
+        <v>0.5376840443807032</v>
       </c>
       <c r="S2">
-        <v>0.5868731397483882</v>
+        <v>0.5681158141271246</v>
       </c>
       <c r="T2">
-        <v>0.7655161325078013</v>
+        <v>0.7212799385110522</v>
       </c>
       <c r="U2">
-        <v>0.7757652074685627</v>
+        <v>0.7382602748708501</v>
       </c>
       <c r="V2">
-        <v>0.8359235595586992</v>
+        <v>0.7956033185414388</v>
       </c>
       <c r="W2">
-        <v>0.8359235595586992</v>
+        <v>0.7962254842553171</v>
       </c>
       <c r="X2">
-        <v>0.9103379354108612</v>
+        <v>0.8650976813742863</v>
       </c>
       <c r="Y2">
-        <v>0.9103379354108612</v>
+        <v>0.8669894478339759</v>
       </c>
       <c r="Z2">
-        <v>0.9249459407925605</v>
+        <v>0.887494945103485</v>
       </c>
       <c r="AA2">
-        <v>0.9249459407925605</v>
+        <v>0.887494945103485</v>
       </c>
       <c r="AB2">
-        <v>0.9453529250454061</v>
+        <v>0.9126902014787172</v>
       </c>
       <c r="AC2">
-        <v>0.9673283681838624</v>
+        <v>0.9391539043346467</v>
       </c>
       <c r="AD2">
-        <v>0.9673283681838624</v>
+        <v>0.9391539043346467</v>
       </c>
       <c r="AE2">
-        <v>0.992989456757136</v>
+        <v>0.968598268031471</v>
       </c>
       <c r="AF2">
-        <v>0.9933667025601065</v>
+        <v>0.9775950435417463</v>
       </c>
       <c r="AG2">
-        <v>0.9933667025601065</v>
+        <v>0.9775950435417463</v>
       </c>
       <c r="AH2">
-        <v>0.9933667025601065</v>
+        <v>0.9775950435417463</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999999</v>
+        <v>0.9916512227474058</v>
       </c>
       <c r="AJ2">
         <v>0.9999999999999999</v>
@@ -2025,97 +2025,97 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1584335508871076</v>
+        <v>0.13673802100952</v>
       </c>
       <c r="F3">
-        <v>0.1584335508871076</v>
+        <v>0.1376392221824333</v>
       </c>
       <c r="G3">
-        <v>0.3580125408531147</v>
+        <v>0.307801846326876</v>
       </c>
       <c r="H3">
-        <v>0.3593746878717572</v>
+        <v>0.3169425089005986</v>
       </c>
       <c r="I3">
-        <v>0.3593746878717572</v>
+        <v>0.3169425089005986</v>
       </c>
       <c r="J3">
-        <v>0.3593746878717572</v>
+        <v>0.3169425089005986</v>
       </c>
       <c r="K3">
-        <v>0.3692881051618827</v>
+        <v>0.3330298178468558</v>
       </c>
       <c r="L3">
-        <v>0.3692881051618827</v>
+        <v>0.3330298178468558</v>
       </c>
       <c r="M3">
-        <v>0.4424086498651912</v>
+        <v>0.4004635991210161</v>
       </c>
       <c r="N3">
-        <v>0.4424086498651912</v>
+        <v>0.4007657993474916</v>
       </c>
       <c r="O3">
-        <v>0.5460074395934466</v>
+        <v>0.4929586612637201</v>
       </c>
       <c r="P3">
-        <v>0.5661378735560663</v>
+        <v>0.517345789950536</v>
       </c>
       <c r="Q3">
-        <v>0.5661378735560663</v>
+        <v>0.5242555676404974</v>
       </c>
       <c r="R3">
-        <v>0.5684983848022039</v>
+        <v>0.5342072539591396</v>
       </c>
       <c r="S3">
-        <v>0.5684983848022039</v>
+        <v>0.5419427347332834</v>
       </c>
       <c r="T3">
-        <v>0.7189068437516661</v>
+        <v>0.6721615516914697</v>
       </c>
       <c r="U3">
-        <v>0.7736011650105349</v>
+        <v>0.7246267430151183</v>
       </c>
       <c r="V3">
-        <v>0.8254583253339175</v>
+        <v>0.7747871593643965</v>
       </c>
       <c r="W3">
-        <v>0.8410036991135523</v>
+        <v>0.79544960263293</v>
       </c>
       <c r="X3">
-        <v>0.8962395329737667</v>
+        <v>0.8483546931093821</v>
       </c>
       <c r="Y3">
-        <v>0.9007109728927543</v>
+        <v>0.8600211977582123</v>
       </c>
       <c r="Z3">
-        <v>0.9183492891440039</v>
+        <v>0.8823838482201556</v>
       </c>
       <c r="AA3">
-        <v>0.9183492891440039</v>
+        <v>0.8865048879959541</v>
       </c>
       <c r="AB3">
-        <v>0.9299163034258408</v>
+        <v>0.9039355007063798</v>
       </c>
       <c r="AC3">
-        <v>0.9627584518035426</v>
+        <v>0.9386490232536149</v>
       </c>
       <c r="AD3">
-        <v>0.9627584518035426</v>
+        <v>0.9386490232536149</v>
       </c>
       <c r="AE3">
-        <v>0.9940503461284811</v>
+        <v>0.9721031929386151</v>
       </c>
       <c r="AF3">
-        <v>0.9996343441484841</v>
+        <v>0.9846734870188737</v>
       </c>
       <c r="AG3">
-        <v>0.9996343441484841</v>
+        <v>0.9846734870188737</v>
       </c>
       <c r="AH3">
-        <v>0.9996343441484841</v>
+        <v>0.9846734870188737</v>
       </c>
       <c r="AI3">
-        <v>0.9996343441484841</v>
+        <v>0.9916688395857949</v>
       </c>
       <c r="AJ3">
         <v>0.9999999999999998</v>
@@ -2135,100 +2135,100 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1312774431354588</v>
+        <v>0.1210169907001225</v>
       </c>
       <c r="F4">
-        <v>0.1709644786411186</v>
+        <v>0.1625579983328845</v>
       </c>
       <c r="G4">
-        <v>0.4130255376837068</v>
+        <v>0.3797055447301017</v>
       </c>
       <c r="H4">
-        <v>0.4130255376837068</v>
+        <v>0.3797335398088238</v>
       </c>
       <c r="I4">
-        <v>0.4130255376837068</v>
+        <v>0.3797335398088238</v>
       </c>
       <c r="J4">
-        <v>0.4130255376837068</v>
+        <v>0.3797335398088238</v>
       </c>
       <c r="K4">
-        <v>0.41429314175617</v>
+        <v>0.3879367540955397</v>
       </c>
       <c r="L4">
-        <v>0.41429314175617</v>
+        <v>0.3879367540955397</v>
       </c>
       <c r="M4">
-        <v>0.4552441402013506</v>
+        <v>0.4305745435832876</v>
       </c>
       <c r="N4">
-        <v>0.4733056032482252</v>
+        <v>0.4533503368771932</v>
       </c>
       <c r="O4">
-        <v>0.5895714600776127</v>
+        <v>0.5613412846766466</v>
       </c>
       <c r="P4">
-        <v>0.6272985725032793</v>
+        <v>0.6011816031482851</v>
       </c>
       <c r="Q4">
-        <v>0.631640174882123</v>
+        <v>0.6120522259952343</v>
       </c>
       <c r="R4">
-        <v>0.631640174882123</v>
+        <v>0.61767701198599</v>
       </c>
       <c r="S4">
-        <v>0.6433642871630587</v>
+        <v>0.6349536793866967</v>
       </c>
       <c r="T4">
-        <v>0.8000267403860579</v>
+        <v>0.7779980710351445</v>
       </c>
       <c r="U4">
-        <v>0.8000267403860579</v>
+        <v>0.7787524413124001</v>
       </c>
       <c r="V4">
-        <v>0.875933500523102</v>
+        <v>0.8517224849763523</v>
       </c>
       <c r="W4">
-        <v>0.875933500523102</v>
+        <v>0.8517224849763523</v>
       </c>
       <c r="X4">
-        <v>0.9221935950881561</v>
+        <v>0.8989671502739723</v>
       </c>
       <c r="Y4">
-        <v>0.9221935950881561</v>
+        <v>0.8989671502739723</v>
       </c>
       <c r="Z4">
-        <v>0.9326661455816034</v>
+        <v>0.9151577967036595</v>
       </c>
       <c r="AA4">
-        <v>0.9326661455816034</v>
+        <v>0.9151577967036595</v>
       </c>
       <c r="AB4">
-        <v>0.9701617629784732</v>
+        <v>0.9547972393907596</v>
       </c>
       <c r="AC4">
-        <v>0.9903867189122257</v>
+        <v>0.9794503660047532</v>
       </c>
       <c r="AD4">
-        <v>0.9903867189122257</v>
+        <v>0.9794503660047532</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0.9948953963540796</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.9950773704352834</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.9950773704352834</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0.9950773704352834</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.9993382458019433</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -2242,97 +2242,97 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0156798898124956</v>
+        <v>0.02112885300370837</v>
       </c>
       <c r="E5">
-        <v>0.06277501262643029</v>
+        <v>0.06807739060675166</v>
       </c>
       <c r="F5">
-        <v>0.1754964543978439</v>
+        <v>0.1689631648624673</v>
       </c>
       <c r="G5">
-        <v>0.3362911576455377</v>
+        <v>0.3093595946311326</v>
       </c>
       <c r="H5">
-        <v>0.3362911576455377</v>
+        <v>0.3093595946311326</v>
       </c>
       <c r="I5">
-        <v>0.3362911576455377</v>
+        <v>0.3093595946311326</v>
       </c>
       <c r="J5">
-        <v>0.3362911576455377</v>
+        <v>0.3093595946311326</v>
       </c>
       <c r="K5">
-        <v>0.3462818299203247</v>
+        <v>0.325812569457082</v>
       </c>
       <c r="L5">
-        <v>0.3499503395367873</v>
+        <v>0.3370694584919074</v>
       </c>
       <c r="M5">
-        <v>0.3820924507575915</v>
+        <v>0.3717283516690398</v>
       </c>
       <c r="N5">
-        <v>0.4623442970178144</v>
+        <v>0.4459278774054934</v>
       </c>
       <c r="O5">
-        <v>0.5739311965288535</v>
+        <v>0.5458811892686446</v>
       </c>
       <c r="P5">
-        <v>0.5908558110835366</v>
+        <v>0.5680330619091896</v>
       </c>
       <c r="Q5">
-        <v>0.6047554746288312</v>
+        <v>0.5876987750172786</v>
       </c>
       <c r="R5">
-        <v>0.6047554746288312</v>
+        <v>0.5952026945536399</v>
       </c>
       <c r="S5">
-        <v>0.6422971945772428</v>
+        <v>0.634299440994514</v>
       </c>
       <c r="T5">
-        <v>0.7965843853520104</v>
+        <v>0.76934744888232</v>
       </c>
       <c r="U5">
-        <v>0.7965843853520104</v>
+        <v>0.76934744888232</v>
       </c>
       <c r="V5">
-        <v>0.8726392552943201</v>
+        <v>0.84009754596757</v>
       </c>
       <c r="W5">
-        <v>0.8726392552943201</v>
+        <v>0.84009754596757</v>
       </c>
       <c r="X5">
-        <v>0.9154373493860368</v>
+        <v>0.8835144234260947</v>
       </c>
       <c r="Y5">
-        <v>0.9154373493860368</v>
+        <v>0.8852908462566571</v>
       </c>
       <c r="Z5">
-        <v>0.931963636787372</v>
+        <v>0.9071153400913112</v>
       </c>
       <c r="AA5">
-        <v>0.931963636787372</v>
+        <v>0.9071153400913112</v>
       </c>
       <c r="AB5">
-        <v>0.9817785610155274</v>
+        <v>0.9562992395866182</v>
       </c>
       <c r="AC5">
-        <v>0.9884564601602178</v>
+        <v>0.9700294984179313</v>
       </c>
       <c r="AD5">
-        <v>0.9884564601602178</v>
+        <v>0.9773019964591826</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0.9950312486487565</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.9950312486487565</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9950312486487565</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9950312486487565</v>
       </c>
       <c r="AI5">
         <v>1</v>
@@ -2352,103 +2352,103 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01450088082007545</v>
+        <v>0.02059627655294436</v>
       </c>
       <c r="E6">
-        <v>0.115945864251581</v>
+        <v>0.1129799093791476</v>
       </c>
       <c r="F6">
-        <v>0.2272472945237075</v>
+        <v>0.2135017395031981</v>
       </c>
       <c r="G6">
-        <v>0.4218090632079213</v>
+        <v>0.3827693430321816</v>
       </c>
       <c r="H6">
-        <v>0.4218090632079213</v>
+        <v>0.3827693430321816</v>
       </c>
       <c r="I6">
-        <v>0.4218090632079213</v>
+        <v>0.384412834762299</v>
       </c>
       <c r="J6">
-        <v>0.4218090632079213</v>
+        <v>0.384412834762299</v>
       </c>
       <c r="K6">
-        <v>0.4218090632079213</v>
+        <v>0.392332391923053</v>
       </c>
       <c r="L6">
-        <v>0.4218090632079213</v>
+        <v>0.392332391923053</v>
       </c>
       <c r="M6">
-        <v>0.4591452490191549</v>
+        <v>0.4317831522853833</v>
       </c>
       <c r="N6">
-        <v>0.485208778786704</v>
+        <v>0.461926390328799</v>
       </c>
       <c r="O6">
-        <v>0.5884362350430044</v>
+        <v>0.5557817619834864</v>
       </c>
       <c r="P6">
-        <v>0.595569994863127</v>
+        <v>0.5702952091777171</v>
       </c>
       <c r="Q6">
-        <v>0.595569994863127</v>
+        <v>0.5711868610723857</v>
       </c>
       <c r="R6">
-        <v>0.595569994863127</v>
+        <v>0.5711868610723857</v>
       </c>
       <c r="S6">
-        <v>0.648220661839265</v>
+        <v>0.6232823676855166</v>
       </c>
       <c r="T6">
-        <v>0.8186457581809339</v>
+        <v>0.7726209841450838</v>
       </c>
       <c r="U6">
-        <v>0.8186457581809339</v>
+        <v>0.7726209841450838</v>
       </c>
       <c r="V6">
-        <v>0.8779759847885968</v>
+        <v>0.8302316195894337</v>
       </c>
       <c r="W6">
-        <v>0.8779759847885968</v>
+        <v>0.8334193581697746</v>
       </c>
       <c r="X6">
-        <v>0.9341062179903915</v>
+        <v>0.8883878469957873</v>
       </c>
       <c r="Y6">
-        <v>0.9341062179903915</v>
+        <v>0.8899291763949693</v>
       </c>
       <c r="Z6">
-        <v>0.9442202799297028</v>
+        <v>0.9069033771493157</v>
       </c>
       <c r="AA6">
-        <v>0.9442202799297028</v>
+        <v>0.9096902774028695</v>
       </c>
       <c r="AB6">
-        <v>0.9788010294803888</v>
+        <v>0.9468659497651749</v>
       </c>
       <c r="AC6">
-        <v>0.9788010294803888</v>
+        <v>0.9546641146548319</v>
       </c>
       <c r="AD6">
-        <v>0.9810672845062279</v>
+        <v>0.9651585969010813</v>
       </c>
       <c r="AE6">
-        <v>0.9969633154605544</v>
+        <v>0.9869068105806847</v>
       </c>
       <c r="AF6">
-        <v>0.9969633154605544</v>
+        <v>0.988684701362855</v>
       </c>
       <c r="AG6">
-        <v>0.9969633154605544</v>
+        <v>0.988684701362855</v>
       </c>
       <c r="AH6">
-        <v>0.9969633154605544</v>
+        <v>0.9888693952760265</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -2465,94 +2465,94 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2177472746633094</v>
+        <v>0.201096874088022</v>
       </c>
       <c r="F7">
-        <v>0.2177472746633094</v>
+        <v>0.2059736459707188</v>
       </c>
       <c r="G7">
-        <v>0.5300181001188365</v>
+        <v>0.4919711457377943</v>
       </c>
       <c r="H7">
-        <v>0.5594503536165245</v>
+        <v>0.5239243197878168</v>
       </c>
       <c r="I7">
-        <v>0.5841636065727557</v>
+        <v>0.5516389089011586</v>
       </c>
       <c r="J7">
-        <v>0.5841636065727557</v>
+        <v>0.5516389089011586</v>
       </c>
       <c r="K7">
-        <v>0.587438417319017</v>
+        <v>0.5600975862130944</v>
       </c>
       <c r="L7">
-        <v>0.587438417319017</v>
+        <v>0.5600975862130944</v>
       </c>
       <c r="M7">
-        <v>0.587438417319017</v>
+        <v>0.5600975862130944</v>
       </c>
       <c r="N7">
-        <v>0.587438417319017</v>
+        <v>0.5614986862900615</v>
       </c>
       <c r="O7">
-        <v>0.6729941131114908</v>
+        <v>0.6438616822961365</v>
       </c>
       <c r="P7">
-        <v>0.7906502914404178</v>
+        <v>0.7550571864877672</v>
       </c>
       <c r="Q7">
-        <v>0.7906502914404178</v>
+        <v>0.7599749870981144</v>
       </c>
       <c r="R7">
-        <v>0.7906502914404178</v>
+        <v>0.7599749870981144</v>
       </c>
       <c r="S7">
-        <v>0.7906502914404178</v>
+        <v>0.7599749870981144</v>
       </c>
       <c r="T7">
-        <v>0.9066133793466435</v>
+        <v>0.8696497651319378</v>
       </c>
       <c r="U7">
-        <v>0.9398162798454657</v>
+        <v>0.9049897172592551</v>
       </c>
       <c r="V7">
-        <v>0.9523771438691301</v>
+        <v>0.9217890856130837</v>
       </c>
       <c r="W7">
-        <v>0.9523771438691301</v>
+        <v>0.9217890856130837</v>
       </c>
       <c r="X7">
-        <v>0.9775788775704897</v>
+        <v>0.9499424259217201</v>
       </c>
       <c r="Y7">
-        <v>0.9775788775704897</v>
+        <v>0.9500425809461291</v>
       </c>
       <c r="Z7">
-        <v>0.9775788775704897</v>
+        <v>0.9546724340689222</v>
       </c>
       <c r="AA7">
-        <v>0.990737958518666</v>
+        <v>0.9720091181579003</v>
       </c>
       <c r="AB7">
-        <v>0.9962665265492839</v>
+        <v>0.9824921100662186</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>0.9913627561442183</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>0.9913627561442183</v>
       </c>
       <c r="AE7">
-        <v>1</v>
+        <v>0.9913627561442183</v>
       </c>
       <c r="AF7">
-        <v>1</v>
+        <v>0.9934937794637757</v>
       </c>
       <c r="AG7">
-        <v>1</v>
+        <v>0.997400878856033</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>0.997400878856033</v>
       </c>
       <c r="AI7">
         <v>1</v>
@@ -2575,97 +2575,97 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.08796612086207516</v>
+        <v>0.08590383156008329</v>
       </c>
       <c r="F8">
-        <v>0.1184468604894667</v>
+        <v>0.1171180308337074</v>
       </c>
       <c r="G8">
-        <v>0.3066161087716519</v>
+        <v>0.29835170234365</v>
       </c>
       <c r="H8">
-        <v>0.457258522426431</v>
+        <v>0.4438836225114734</v>
       </c>
       <c r="I8">
-        <v>0.457258522426431</v>
+        <v>0.4438836225114734</v>
       </c>
       <c r="J8">
-        <v>0.4645172698754594</v>
+        <v>0.4530052099607288</v>
       </c>
       <c r="K8">
-        <v>0.4645172698754594</v>
+        <v>0.4530052099607288</v>
       </c>
       <c r="L8">
-        <v>0.4645172698754594</v>
+        <v>0.4530052099607288</v>
       </c>
       <c r="M8">
-        <v>0.4717622917101724</v>
+        <v>0.4621137393283695</v>
       </c>
       <c r="N8">
-        <v>0.4717622917101724</v>
+        <v>0.4621137393283695</v>
       </c>
       <c r="O8">
-        <v>0.5297086089923858</v>
+        <v>0.5194577530037657</v>
       </c>
       <c r="P8">
-        <v>0.6131509535508104</v>
+        <v>0.6010578179839107</v>
       </c>
       <c r="Q8">
-        <v>0.6131509535508104</v>
+        <v>0.6010578179839107</v>
       </c>
       <c r="R8">
-        <v>0.6138277405217024</v>
+        <v>0.6039175525839394</v>
       </c>
       <c r="S8">
-        <v>0.6138277405217024</v>
+        <v>0.6039175525839394</v>
       </c>
       <c r="T8">
-        <v>0.7218110784718976</v>
+        <v>0.7088650821840212</v>
       </c>
       <c r="U8">
-        <v>0.8483882917586284</v>
+        <v>0.8315021909970153</v>
       </c>
       <c r="V8">
-        <v>0.8483882917586284</v>
+        <v>0.8315021909970153</v>
       </c>
       <c r="W8">
-        <v>0.8880338889075098</v>
+        <v>0.871435523327474</v>
       </c>
       <c r="X8">
-        <v>0.8998317307256629</v>
+        <v>0.8848754504420354</v>
       </c>
       <c r="Y8">
-        <v>0.9221363023548768</v>
+        <v>0.9083111221712885</v>
       </c>
       <c r="Z8">
-        <v>0.9245141551955796</v>
+        <v>0.9127891928581077</v>
       </c>
       <c r="AA8">
-        <v>0.9255383333723441</v>
+        <v>0.915979423610387</v>
       </c>
       <c r="AB8">
-        <v>0.9320313726282292</v>
+        <v>0.9243725423842625</v>
       </c>
       <c r="AC8">
-        <v>0.9625453565289465</v>
+        <v>0.9556183691263797</v>
       </c>
       <c r="AD8">
-        <v>0.9625453565289465</v>
+        <v>0.9577193412296472</v>
       </c>
       <c r="AE8">
-        <v>0.9722645003906623</v>
+        <v>0.969181665961995</v>
       </c>
       <c r="AF8">
-        <v>0.9998774772113305</v>
+        <v>0.9976675734505441</v>
       </c>
       <c r="AG8">
-        <v>0.9998774772113305</v>
+        <v>0.9976675734505441</v>
       </c>
       <c r="AH8">
-        <v>0.9998774772113305</v>
+        <v>0.9976675734505441</v>
       </c>
       <c r="AI8">
-        <v>0.9998774772113305</v>
+        <v>0.9976675734505441</v>
       </c>
       <c r="AJ8">
         <v>1</v>
@@ -2685,97 +2685,97 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.05066149589664281</v>
+        <v>0.04904800211577837</v>
       </c>
       <c r="F9">
-        <v>0.05265811516256222</v>
+        <v>0.06058692219581475</v>
       </c>
       <c r="G9">
-        <v>0.2450190454479574</v>
+        <v>0.2188515930239606</v>
       </c>
       <c r="H9">
-        <v>0.3523719540741408</v>
+        <v>0.3115952335142122</v>
       </c>
       <c r="I9">
-        <v>0.3523719540741408</v>
+        <v>0.3121628420644366</v>
       </c>
       <c r="J9">
-        <v>0.3523719540741408</v>
+        <v>0.3209264624267592</v>
       </c>
       <c r="K9">
-        <v>0.3523719540741408</v>
+        <v>0.321359870678197</v>
       </c>
       <c r="L9">
-        <v>0.3523719540741408</v>
+        <v>0.3221579285200953</v>
       </c>
       <c r="M9">
-        <v>0.4094179976102724</v>
+        <v>0.376126903167827</v>
       </c>
       <c r="N9">
-        <v>0.4094179976102724</v>
+        <v>0.3805691725134516</v>
       </c>
       <c r="O9">
-        <v>0.5829324978688825</v>
+        <v>0.5243077140488075</v>
       </c>
       <c r="P9">
-        <v>0.6135405124128913</v>
+        <v>0.5578992364766605</v>
       </c>
       <c r="Q9">
-        <v>0.6135405124128913</v>
+        <v>0.5621808884128647</v>
       </c>
       <c r="R9">
-        <v>0.6727889486264731</v>
+        <v>0.6178473856545661</v>
       </c>
       <c r="S9">
-        <v>0.6727889486264731</v>
+        <v>0.6270583614670369</v>
       </c>
       <c r="T9">
-        <v>0.7664625227541993</v>
+        <v>0.7092584782617398</v>
       </c>
       <c r="U9">
-        <v>0.8662752598734107</v>
+        <v>0.7961904342024816</v>
       </c>
       <c r="V9">
-        <v>0.8662752598734107</v>
+        <v>0.8030427849610149</v>
       </c>
       <c r="W9">
-        <v>0.9048468009187238</v>
+        <v>0.8427722982667211</v>
       </c>
       <c r="X9">
-        <v>0.9048468009187238</v>
+        <v>0.8464317777112624</v>
       </c>
       <c r="Y9">
-        <v>0.9125259777399155</v>
+        <v>0.8623506024015771</v>
       </c>
       <c r="Z9">
-        <v>0.9125259777399155</v>
+        <v>0.8699686091941311</v>
       </c>
       <c r="AA9">
-        <v>0.9377217394471623</v>
+        <v>0.8993885678637372</v>
       </c>
       <c r="AB9">
-        <v>0.9377217394471623</v>
+        <v>0.9047607642486016</v>
       </c>
       <c r="AC9">
-        <v>0.9700928880535006</v>
+        <v>0.9397112450210069</v>
       </c>
       <c r="AD9">
-        <v>0.9716195140183351</v>
+        <v>0.9508879116955654</v>
       </c>
       <c r="AE9">
-        <v>0.9716195140183351</v>
+        <v>0.9522981245775424</v>
       </c>
       <c r="AF9">
-        <v>0.9932108251169528</v>
+        <v>0.9789399063990128</v>
       </c>
       <c r="AG9">
-        <v>1</v>
+        <v>0.9941727506035832</v>
       </c>
       <c r="AH9">
-        <v>1</v>
+        <v>0.9941801926416999</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>0.9942221823576363</v>
       </c>
       <c r="AJ9">
         <v>1</v>
@@ -2795,100 +2795,100 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1184757358391148</v>
+        <v>0.1036299280280062</v>
       </c>
       <c r="F10">
-        <v>0.1184757358391148</v>
+        <v>0.1122883958281123</v>
       </c>
       <c r="G10">
-        <v>0.2790348654070677</v>
+        <v>0.249542560083181</v>
       </c>
       <c r="H10">
-        <v>0.3865451193311817</v>
+        <v>0.3444111710788846</v>
       </c>
       <c r="I10">
-        <v>0.3865451193311817</v>
+        <v>0.3444111710788846</v>
       </c>
       <c r="J10">
-        <v>0.3865451193311817</v>
+        <v>0.3444111710788846</v>
       </c>
       <c r="K10">
-        <v>0.3865451193311817</v>
+        <v>0.3444111710788846</v>
       </c>
       <c r="L10">
-        <v>0.3865451193311817</v>
+        <v>0.3444111710788846</v>
       </c>
       <c r="M10">
-        <v>0.406882971182455</v>
+        <v>0.3696298517798958</v>
       </c>
       <c r="N10">
-        <v>0.406882971182455</v>
+        <v>0.3735905665310038</v>
       </c>
       <c r="O10">
-        <v>0.5264305790186139</v>
+        <v>0.4780769102146962</v>
       </c>
       <c r="P10">
-        <v>0.5930420311285503</v>
+        <v>0.5402677627942254</v>
       </c>
       <c r="Q10">
-        <v>0.5970380981691</v>
+        <v>0.5524295109581857</v>
       </c>
       <c r="R10">
-        <v>0.6093167335733652</v>
+        <v>0.5712089534322302</v>
       </c>
       <c r="S10">
-        <v>0.6093167335733652</v>
+        <v>0.5712089534322302</v>
       </c>
       <c r="T10">
-        <v>0.7735824902792336</v>
+        <v>0.7114246779477184</v>
       </c>
       <c r="U10">
-        <v>0.8717565733958657</v>
+        <v>0.7988337761790827</v>
       </c>
       <c r="V10">
-        <v>0.8794008558975225</v>
+        <v>0.8139104142224547</v>
       </c>
       <c r="W10">
-        <v>0.8938401164525409</v>
+        <v>0.834416175893453</v>
       </c>
       <c r="X10">
-        <v>0.9175388868146608</v>
+        <v>0.8623201989096961</v>
       </c>
       <c r="Y10">
-        <v>0.9216091170193542</v>
+        <v>0.8745412027450642</v>
       </c>
       <c r="Z10">
-        <v>0.9328406415857932</v>
+        <v>0.892484013497013</v>
       </c>
       <c r="AA10">
-        <v>0.9328406415857932</v>
+        <v>0.892484013497013</v>
       </c>
       <c r="AB10">
-        <v>0.9346997571284426</v>
+        <v>0.9029383574902413</v>
       </c>
       <c r="AC10">
-        <v>0.9636080428548811</v>
+        <v>0.9350047343405653</v>
       </c>
       <c r="AD10">
-        <v>0.9636080428548811</v>
+        <v>0.9398810232685602</v>
       </c>
       <c r="AE10">
-        <v>0.9716024078588247</v>
+        <v>0.9552373739423274</v>
       </c>
       <c r="AF10">
-        <v>0.9999999999999997</v>
+        <v>0.9868957114158561</v>
       </c>
       <c r="AG10">
-        <v>0.9999999999999997</v>
+        <v>0.990699861717552</v>
       </c>
       <c r="AH10">
-        <v>0.9999999999999997</v>
+        <v>0.990699861717552</v>
       </c>
       <c r="AI10">
-        <v>0.9999999999999997</v>
+        <v>0.9934146082188429</v>
       </c>
       <c r="AJ10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -2902,103 +2902,103 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01604993310975715</v>
+        <v>0.006354245366700436</v>
       </c>
       <c r="E11">
-        <v>0.0885270139789624</v>
+        <v>0.08522281056768265</v>
       </c>
       <c r="F11">
-        <v>0.1652622026400279</v>
+        <v>0.1695634544146407</v>
       </c>
       <c r="G11">
-        <v>0.2843020384934328</v>
+        <v>0.3082696446127893</v>
       </c>
       <c r="H11">
-        <v>0.2843020384934328</v>
+        <v>0.3082696446127893</v>
       </c>
       <c r="I11">
-        <v>0.2954074041987656</v>
+        <v>0.3082696446127893</v>
       </c>
       <c r="J11">
-        <v>0.2954074041987656</v>
+        <v>0.3082696446127893</v>
       </c>
       <c r="K11">
-        <v>0.2988072213073558</v>
+        <v>0.3082696446127893</v>
       </c>
       <c r="L11">
-        <v>0.3150425422386015</v>
+        <v>0.3148621311863306</v>
       </c>
       <c r="M11">
-        <v>0.336908611510661</v>
+        <v>0.3286906717215708</v>
       </c>
       <c r="N11">
-        <v>0.4725789793710183</v>
+        <v>0.4887686973721765</v>
       </c>
       <c r="O11">
-        <v>0.5574241198651571</v>
+        <v>0.5835314104608964</v>
       </c>
       <c r="P11">
-        <v>0.5574241198651571</v>
+        <v>0.5835314104608964</v>
       </c>
       <c r="Q11">
-        <v>0.5874434540643585</v>
+        <v>0.6078376817356176</v>
       </c>
       <c r="R11">
-        <v>0.5948898988334355</v>
+        <v>0.6078376817356176</v>
       </c>
       <c r="S11">
-        <v>0.6626328829802812</v>
+        <v>0.6806224766685178</v>
       </c>
       <c r="T11">
-        <v>0.8183387044847724</v>
+        <v>0.8664479900314079</v>
       </c>
       <c r="U11">
-        <v>0.8183387044847724</v>
+        <v>0.8664479900314079</v>
       </c>
       <c r="V11">
-        <v>0.8487311279406592</v>
+        <v>0.8912337169362692</v>
       </c>
       <c r="W11">
-        <v>0.8487311279406592</v>
+        <v>0.8912337169362692</v>
       </c>
       <c r="X11">
-        <v>0.8853115418189614</v>
+        <v>0.9239716075502624</v>
       </c>
       <c r="Y11">
-        <v>0.8853115418189614</v>
+        <v>0.9239716075502624</v>
       </c>
       <c r="Z11">
-        <v>0.9034123802063257</v>
+        <v>0.9329614637382686</v>
       </c>
       <c r="AA11">
-        <v>0.9034123802063257</v>
+        <v>0.9329614637382686</v>
       </c>
       <c r="AB11">
-        <v>0.9547368648177804</v>
+        <v>0.9846469053672618</v>
       </c>
       <c r="AC11">
-        <v>0.9730347202435442</v>
+        <v>0.9938899474259452</v>
       </c>
       <c r="AD11">
-        <v>0.9730347202435442</v>
+        <v>0.9938899474259452</v>
       </c>
       <c r="AE11">
-        <v>0.9877905633980161</v>
+        <v>0.998581162555641</v>
       </c>
       <c r="AF11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5560812071593899</v>
+        <v>0.5110131976701903</v>
       </c>
       <c r="G2">
         <v>12</v>
@@ -3107,16 +3107,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5460074395934466</v>
+        <v>0.517345789950536</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5895714600776127</v>
+        <v>0.5613412846766466</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5739311965288535</v>
+        <v>0.5458811892686446</v>
       </c>
       <c r="G5">
         <v>12</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5884362350430044</v>
+        <v>0.5557817619834864</v>
       </c>
       <c r="G6">
         <v>12</v>
@@ -3271,16 +3271,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5300181001188365</v>
+        <v>0.5239243197878168</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5297086089923858</v>
+        <v>0.5194577530037657</v>
       </c>
       <c r="G8">
         <v>12</v>
@@ -3350,7 +3350,7 @@
         <v>0.5</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>14</v>
@@ -3359,10 +3359,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5829324978688825</v>
+        <v>0.5243077140488075</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -3394,16 +3394,16 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5264305790186139</v>
+        <v>0.5402677627942254</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5574241198651571</v>
+        <v>0.5835314104608964</v>
       </c>
       <c r="G11">
         <v>12</v>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7655161325078013</v>
+        <v>0.7212799385110522</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -3571,16 +3571,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7189068437516661</v>
+        <v>0.7246267430151183</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8000267403860579</v>
+        <v>0.7779980710351445</v>
       </c>
       <c r="G4">
         <v>17</v>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7965843853520104</v>
+        <v>0.76934744888232</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8186457581809339</v>
+        <v>0.7726209841450838</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -3741,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7906502914404178</v>
+        <v>0.7550571864877672</v>
       </c>
       <c r="G7">
         <v>13</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7218110784718976</v>
+        <v>0.7088650821840212</v>
       </c>
       <c r="G8">
         <v>17</v>
@@ -3814,7 +3814,7 @@
         <v>0.7</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>19</v>
@@ -3823,10 +3823,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7664625227541993</v>
+        <v>0.7092584782617398</v>
       </c>
       <c r="G9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7735824902792336</v>
+        <v>0.7114246779477184</v>
       </c>
       <c r="G10">
         <v>17</v>
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8183387044847724</v>
+        <v>0.8664479900314079</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -3994,16 +3994,16 @@
         <v>2</v>
       </c>
       <c r="D2">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.8650976813742863</v>
+      </c>
+      <c r="G2">
         <v>21</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.8359235595586992</v>
-      </c>
-      <c r="G2">
-        <v>19</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -4035,16 +4035,16 @@
         <v>2</v>
       </c>
       <c r="D3">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.8483546931093821</v>
+      </c>
+      <c r="G3">
         <v>21</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.8254583253339175</v>
-      </c>
-      <c r="G3">
-        <v>19</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -4076,16 +4076,16 @@
         <v>2</v>
       </c>
       <c r="D4">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.8517224849763523</v>
+      </c>
+      <c r="G4">
         <v>19</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.8000267403860579</v>
-      </c>
-      <c r="G4">
-        <v>17</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8726392552943201</v>
+        <v>0.84009754596757</v>
       </c>
       <c r="G5">
         <v>19</v>
@@ -4158,16 +4158,16 @@
         <v>2</v>
       </c>
       <c r="D6">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.8302316195894337</v>
+      </c>
+      <c r="G6">
         <v>19</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.8186457581809339</v>
-      </c>
-      <c r="G6">
-        <v>17</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9066133793466435</v>
+        <v>0.8696497651319378</v>
       </c>
       <c r="G7">
         <v>17</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8483882917586284</v>
+        <v>0.8315021909970153</v>
       </c>
       <c r="G8">
         <v>18</v>
@@ -4278,16 +4278,16 @@
         <v>0.8</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8662752598734107</v>
+        <v>0.8030427849610149</v>
       </c>
       <c r="G9">
         <v>18</v>
@@ -4322,16 +4322,16 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8717565733958657</v>
+        <v>0.8139104142224547</v>
       </c>
       <c r="G10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8183387044847724</v>
+        <v>0.8664479900314079</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -4458,16 +4458,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9103379354108612</v>
+        <v>0.9126902014787172</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -4499,16 +4499,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9007109728927543</v>
+        <v>0.9039355007063798</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -4540,16 +4540,16 @@
         <v>2</v>
       </c>
       <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.9151577967036595</v>
+      </c>
+      <c r="G4">
         <v>23</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.9221935950881561</v>
-      </c>
-      <c r="G4">
-        <v>21</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -4581,16 +4581,16 @@
         <v>2</v>
       </c>
       <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.9071153400913112</v>
+      </c>
+      <c r="G5">
         <v>23</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.9154373493860368</v>
-      </c>
-      <c r="G5">
-        <v>21</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -4622,16 +4622,16 @@
         <v>2</v>
       </c>
       <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.9069033771493157</v>
+      </c>
+      <c r="G6">
         <v>23</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.9341062179903915</v>
-      </c>
-      <c r="G6">
-        <v>21</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -4663,16 +4663,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9066133793466435</v>
+        <v>0.9049897172592551</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9221363023548768</v>
+        <v>0.9083111221712885</v>
       </c>
       <c r="G8">
         <v>22</v>
@@ -4742,19 +4742,19 @@
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9048468009187238</v>
+        <v>0.9047607642486016</v>
       </c>
       <c r="G9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -4786,16 +4786,16 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9175388868146608</v>
+        <v>0.9029383574902413</v>
       </c>
       <c r="G10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -4827,16 +4827,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9034123802063257</v>
+        <v>0.9239716075502624</v>
       </c>
       <c r="G11">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H11">
         <v>5</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/5_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/5_11R22.xlsx
@@ -159,40 +159,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>11R22.5</t>
@@ -202,9 +205,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -692,13 +692,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1426533907853932</v>
+        <v>0.2214104565109604</v>
       </c>
       <c r="F2">
-        <v>0.02398802410843653</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.1221279277048255</v>
+        <v>0.1811819917244604</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -710,70 +710,70 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.03730725872567937</v>
+        <v>0.01493944305205501</v>
       </c>
       <c r="L2">
-        <v>0.0004565281849256744</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.07066405221446344</v>
+        <v>0.08031641345154487</v>
       </c>
       <c r="N2">
-        <v>0.01899401475488815</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.09482200119157835</v>
+        <v>0.127664295247206</v>
       </c>
       <c r="P2">
-        <v>0.009937647114397683</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.006125451292251273</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.01060774830386389</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.03043176974642149</v>
+        <v>0.001463967969892171</v>
       </c>
       <c r="T2">
-        <v>0.1531641243839275</v>
+        <v>0.2420107555049074</v>
       </c>
       <c r="U2">
-        <v>0.01698033635979786</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.05734304367058871</v>
+        <v>0.05420817311492265</v>
       </c>
       <c r="W2">
-        <v>0.0006221657138783021</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.06887219711896923</v>
+        <v>0.0768045034240511</v>
       </c>
       <c r="Y2">
-        <v>0.00189176645968958</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.02050549726950914</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.02519525637523208</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.02646370285592955</v>
+        <v>0</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0294443636968242</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.008996775510275381</v>
+        <v>0</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -782,10 +782,10 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.01405617920565954</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.008348777252594102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -802,16 +802,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.13673802100952</v>
+        <v>0.2041867823946621</v>
       </c>
       <c r="F3">
-        <v>0.0009012011729132739</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.1701626241444427</v>
+        <v>0.2678579189046641</v>
       </c>
       <c r="H3">
-        <v>0.009140662573722534</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -820,70 +820,70 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.01608730894625721</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.06743378127416032</v>
+        <v>0.07216787132189198</v>
       </c>
       <c r="N3">
-        <v>0.0003022002264754716</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.09219286191622851</v>
+        <v>0.1193318958896565</v>
       </c>
       <c r="P3">
-        <v>0.02438712868681598</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.00690977768996138</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.009951686318642195</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.007735480774143798</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.1302188169581864</v>
+        <v>0.191768231621943</v>
       </c>
       <c r="U3">
-        <v>0.05246519132364852</v>
+        <v>0.04365393114871765</v>
       </c>
       <c r="V3">
-        <v>0.05016041634927815</v>
+        <v>0.03926352323794585</v>
       </c>
       <c r="W3">
-        <v>0.02066244326853351</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.05290509047645207</v>
+        <v>0.0444919030730432</v>
       </c>
       <c r="Y3">
-        <v>0.01166650464883028</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.02236265046194327</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.004121039775798526</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.01743061271042575</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.03471352254723507</v>
+        <v>0.009838453328954591</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.03345416968500025</v>
+        <v>0.00743948907852086</v>
       </c>
       <c r="AF3">
-        <v>0.01257029408025857</v>
+        <v>0</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.006995352566921152</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.008331160414204935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -912,16 +912,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1210169907001225</v>
+        <v>0.1578965700604887</v>
       </c>
       <c r="F4">
-        <v>0.04154100763276193</v>
+        <v>0.02139609530367071</v>
       </c>
       <c r="G4">
-        <v>0.2171475463972171</v>
+        <v>0.3230013726040267</v>
       </c>
       <c r="H4">
-        <v>2.799507872215084E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -930,70 +930,70 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.008203214286715945</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.04263778948774782</v>
+        <v>0.02327982467866124</v>
       </c>
       <c r="N4">
-        <v>0.02277579329390569</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1079909477994533</v>
+        <v>0.1355242637168601</v>
       </c>
       <c r="P4">
-        <v>0.03984031847163851</v>
+        <v>0.01847515152987221</v>
       </c>
       <c r="Q4">
-        <v>0.01087062284694926</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.005624785990755623</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.01727666740070664</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.1430443916484478</v>
+        <v>0.1957287625173821</v>
       </c>
       <c r="U4">
-        <v>0.0007543702772555734</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.07297004366395222</v>
+        <v>0.0753756520682661</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0.04724466529762003</v>
+        <v>0.03119216134847353</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0161906464296871</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.03963944268710007</v>
+        <v>0.0181301461722989</v>
       </c>
       <c r="AC4">
-        <v>0.02465312661399368</v>
+        <v>0</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.01544503034932645</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0001819740812038489</v>
+        <v>0</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -1002,10 +1002,10 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.004260875366659827</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0006617541980565202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -1019,16 +1019,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02112885300370837</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04694853760304329</v>
+        <v>0.03410149138234103</v>
       </c>
       <c r="F5">
-        <v>0.1008857742557156</v>
+        <v>0.1400557532107807</v>
       </c>
       <c r="G5">
-        <v>0.1403964297686653</v>
+        <v>0.2176704513123927</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1040,67 +1040,67 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.01645297482594943</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.01125688903482536</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.03465889317713237</v>
+        <v>0.009959724319514016</v>
       </c>
       <c r="N5">
-        <v>0.07419952573645361</v>
+        <v>0.08763330930553466</v>
       </c>
       <c r="O5">
-        <v>0.09995331186315121</v>
+        <v>0.1382240248795139</v>
       </c>
       <c r="P5">
-        <v>0.022151872640545</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.01966571310808907</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.007503919536361285</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.03909674644087397</v>
+        <v>0.0186774394981869</v>
       </c>
       <c r="T5">
-        <v>0.135048007887806</v>
+        <v>0.2071640159163285</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.07075009708525008</v>
+        <v>0.08085725459547134</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0.04341687745852461</v>
+        <v>0.02716390119671445</v>
       </c>
       <c r="Y5">
-        <v>0.001776422830562453</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.02182449383465412</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.04918389949530701</v>
+        <v>0.0384926343832217</v>
       </c>
       <c r="AC5">
-        <v>0.01373025883131309</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.007272498041251277</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.01772925218957384</v>
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.004968751351243731</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1129,100 +1129,100 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02059627655294436</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.09238363282620322</v>
+        <v>0.1139761566652302</v>
       </c>
       <c r="F6">
-        <v>0.1005218301240505</v>
+        <v>0.1287884966681106</v>
       </c>
       <c r="G6">
-        <v>0.1692676035289835</v>
+        <v>0.2539127388272678</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.001643491730117434</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.007919557160754053</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.03945076036233033</v>
+        <v>0.01763298930660746</v>
       </c>
       <c r="N6">
-        <v>0.03014323804341566</v>
+        <v>0.0006923598125755903</v>
       </c>
       <c r="O6">
-        <v>0.09385537165468733</v>
+        <v>0.1166548697911351</v>
       </c>
       <c r="P6">
-        <v>0.0145134471942307</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0008916518946685672</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.05209550661313086</v>
+        <v>0.0406477029909942</v>
       </c>
       <c r="T6">
-        <v>0.1493386164595673</v>
+        <v>0.2176399720729787</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.05761063544434985</v>
+        <v>0.05068579378897883</v>
       </c>
       <c r="W6">
-        <v>0.003187738580340944</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.05496848882601274</v>
+        <v>0.04587682042351098</v>
       </c>
       <c r="Y6">
-        <v>0.001541329399181927</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.01697420075434644</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.002786900253553824</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0371756723623055</v>
+        <v>0.0134920996526106</v>
       </c>
       <c r="AC6">
-        <v>0.00779816488965705</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0104944822462494</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.02174821367960344</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.001777890782170265</v>
+        <v>0</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0001846939131714255</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.01113060472397361</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1242,25 +1242,25 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.201096874088022</v>
+        <v>0.2623026508736602</v>
       </c>
       <c r="F7">
-        <v>0.004876771882696797</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.2859974997670756</v>
+        <v>0.3913564482661865</v>
       </c>
       <c r="H7">
-        <v>0.03195317405002255</v>
+        <v>0.005194571630002348</v>
       </c>
       <c r="I7">
-        <v>0.02771458911334178</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.008458677311935735</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.001401100076967161</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.08236299600607497</v>
+        <v>0.08182037853397613</v>
       </c>
       <c r="P7">
-        <v>0.1111955041916307</v>
+        <v>0.1256474368145971</v>
       </c>
       <c r="Q7">
-        <v>0.004917800610347141</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1287,34 +1287,34 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0.1096747780338235</v>
+        <v>0.1233358462475138</v>
       </c>
       <c r="U7">
-        <v>0.03533995212731733</v>
+        <v>0.01034266763406377</v>
       </c>
       <c r="V7">
-        <v>0.01679936835382851</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>0.02815334030863638</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.0001001550244090473</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>0.004629853122793118</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.01733668408897799</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.01048299190831835</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.008870646077999679</v>
+        <v>0</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -1323,16 +1323,16 @@
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.002131023319557395</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>0.003907099392257345</v>
+        <v>0</v>
       </c>
       <c r="AH7">
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.002599121143967298</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -1352,22 +1352,22 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.08590383156008329</v>
+        <v>0.09615020195347374</v>
       </c>
       <c r="F8">
-        <v>0.03121419927362408</v>
+        <v>0.005715605238525228</v>
       </c>
       <c r="G8">
-        <v>0.1812336715099427</v>
+        <v>0.2537873128707591</v>
       </c>
       <c r="H8">
-        <v>0.1455319201678233</v>
+        <v>0.1947510138565247</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.00912158744925542</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1376,64 +1376,64 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.009108529367640679</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.05734401367539622</v>
+        <v>0.04892378069824192</v>
       </c>
       <c r="P8">
-        <v>0.08160006498014498</v>
+        <v>0.08903350764159115</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0.002859734600028712</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0.1049475296000818</v>
+        <v>0.12764079862064</v>
       </c>
       <c r="U8">
-        <v>0.1226371088129941</v>
+        <v>0.1568922288331804</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0.03993333233045867</v>
+        <v>0.02013353508615454</v>
       </c>
       <c r="X8">
-        <v>0.01343992711456139</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.0234356717292531</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.004478070686819163</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.003190230752279271</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.008393118773875469</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.03124582674211719</v>
+        <v>0.00576790431677295</v>
       </c>
       <c r="AD8">
-        <v>0.002100972103267585</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>0.01146232473234771</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.02848590748854917</v>
+        <v>0.001204110884136484</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="AJ8">
-        <v>0.002332426549455918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -1462,100 +1462,100 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04904800211577837</v>
+        <v>0.03803257228282618</v>
       </c>
       <c r="F9">
-        <v>0.01153892008003639</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.1582646708281458</v>
+        <v>0.2561022061501917</v>
       </c>
       <c r="H9">
-        <v>0.09274364049025165</v>
+        <v>0.1252783377347731</v>
       </c>
       <c r="I9">
-        <v>0.0005676085502243881</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.008763620362322642</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.0004334082514378281</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.000798057841898232</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.05396897464773175</v>
+        <v>0.04785812996523989</v>
       </c>
       <c r="N9">
-        <v>0.004442269345624537</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.143738541535356</v>
+        <v>0.2270983211779156</v>
       </c>
       <c r="P9">
-        <v>0.03359152242785299</v>
+        <v>0.007171084689746151</v>
       </c>
       <c r="Q9">
-        <v>0.004281651936204234</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>0.05566649724170132</v>
+        <v>0.05124752221564287</v>
       </c>
       <c r="S9">
-        <v>0.009210975812470715</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>0.08220011679470293</v>
+        <v>0.1042264014409146</v>
       </c>
       <c r="U9">
-        <v>0.0869319559407418</v>
+        <v>0.1136743221865427</v>
       </c>
       <c r="V9">
-        <v>0.006852350758533322</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>0.03972951330570614</v>
+        <v>0.01942662625858634</v>
       </c>
       <c r="X9">
-        <v>0.003659479444541399</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.01591882469031473</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.007618006792553994</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.02941995866960608</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.005372196384864389</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.03495048077240523</v>
+        <v>0.009884475897620912</v>
       </c>
       <c r="AD9">
-        <v>0.01117666667455847</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>0.001410212881976919</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>0.02664178182147049</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>0.01523284420457043</v>
+        <v>0</v>
       </c>
       <c r="AH9">
-        <v>7.442038116616439E-06</v>
+        <v>0</v>
       </c>
       <c r="AI9">
-        <v>4.198971593643905E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
-        <v>0.00577781764236376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -1572,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1036299280280062</v>
+        <v>0.1404549804345659</v>
       </c>
       <c r="F10">
-        <v>0.008658467800106097</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.1372541642550687</v>
+        <v>0.2043904123531032</v>
       </c>
       <c r="H10">
-        <v>0.0948686109957036</v>
+        <v>0.1237956105427776</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1596,76 +1596,76 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.02521868070101121</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.003960714751108013</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.1044863436836925</v>
+        <v>0.142083427976938</v>
       </c>
       <c r="P10">
-        <v>0.06219085257952917</v>
+        <v>0.06165987653356372</v>
       </c>
       <c r="Q10">
-        <v>0.01216174816396036</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>0.01877944247404447</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.1402157245154882</v>
+        <v>0.2100217264184707</v>
       </c>
       <c r="U10">
-        <v>0.08740909823136433</v>
+        <v>0.1096115806879666</v>
       </c>
       <c r="V10">
-        <v>0.01507663804337204</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0.02050576167099831</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>0.02790402301624314</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.01222100383536801</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.01794281075194886</v>
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.01045434399322833</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.03206637685032398</v>
+        <v>0.004379129572951226</v>
       </c>
       <c r="AD10">
-        <v>0.004876288927994828</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>0.01535635067376726</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.03165833747352863</v>
+        <v>0.003603255479663002</v>
       </c>
       <c r="AG10">
-        <v>0.003804150301695851</v>
+        <v>0</v>
       </c>
       <c r="AH10">
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.002714746501290885</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0.006585391781156929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -1679,16 +1679,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.006354245366700436</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0788685652009822</v>
+        <v>0.08090149535797071</v>
       </c>
       <c r="F11">
-        <v>0.08434064384695808</v>
+        <v>0.08830840456312647</v>
       </c>
       <c r="G11">
-        <v>0.1387061901981486</v>
+        <v>0.1618966498651349</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1703,67 +1703,67 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.00659248657354126</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.0138285405352403</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.1600780256506056</v>
+        <v>0.1908251896368158</v>
       </c>
       <c r="O11">
-        <v>0.09476271308871989</v>
+        <v>0.1024155337909465</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.02430627127472123</v>
+        <v>0.007046936006190078</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.07278479493290022</v>
+        <v>0.07266661115471687</v>
       </c>
       <c r="T11">
-        <v>0.1858255133628901</v>
+        <v>0.2256765351828088</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0.0247857269048613</v>
+        <v>0.00769591869633468</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0.03273789061399324</v>
+        <v>0.01845982732937129</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.008989856188006172</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.05168544162899323</v>
+        <v>0.04410689841658397</v>
       </c>
       <c r="AC11">
-        <v>0.00924304205868331</v>
+        <v>0</v>
       </c>
       <c r="AD11">
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.004691215129695803</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>0.001418837444358807</v>
+        <v>0</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -1915,100 +1915,100 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1426533907853932</v>
+        <v>0.2214104565109604</v>
       </c>
       <c r="F2">
-        <v>0.1666414148938298</v>
+        <v>0.2214104565109604</v>
       </c>
       <c r="G2">
-        <v>0.2887693425986553</v>
+        <v>0.4025924482354208</v>
       </c>
       <c r="H2">
-        <v>0.2887693425986553</v>
+        <v>0.4025924482354208</v>
       </c>
       <c r="I2">
-        <v>0.2887693425986553</v>
+        <v>0.4025924482354208</v>
       </c>
       <c r="J2">
-        <v>0.2887693425986553</v>
+        <v>0.4025924482354208</v>
       </c>
       <c r="K2">
-        <v>0.3260766013243346</v>
+        <v>0.4175318912874759</v>
       </c>
       <c r="L2">
-        <v>0.3265331295092603</v>
+        <v>0.4175318912874759</v>
       </c>
       <c r="M2">
-        <v>0.3971971817237238</v>
+        <v>0.4978483047390208</v>
       </c>
       <c r="N2">
-        <v>0.4161911964786119</v>
+        <v>0.4978483047390208</v>
       </c>
       <c r="O2">
-        <v>0.5110131976701903</v>
+        <v>0.6255125999862268</v>
       </c>
       <c r="P2">
-        <v>0.520950844784588</v>
+        <v>0.6255125999862268</v>
       </c>
       <c r="Q2">
-        <v>0.5270762960768393</v>
+        <v>0.6255125999862268</v>
       </c>
       <c r="R2">
-        <v>0.5376840443807032</v>
+        <v>0.6255125999862268</v>
       </c>
       <c r="S2">
-        <v>0.5681158141271246</v>
+        <v>0.6269765679561189</v>
       </c>
       <c r="T2">
-        <v>0.7212799385110522</v>
+        <v>0.8689873234610264</v>
       </c>
       <c r="U2">
-        <v>0.7382602748708501</v>
+        <v>0.8689873234610264</v>
       </c>
       <c r="V2">
-        <v>0.7956033185414388</v>
+        <v>0.923195496575949</v>
       </c>
       <c r="W2">
-        <v>0.7962254842553171</v>
+        <v>0.923195496575949</v>
       </c>
       <c r="X2">
-        <v>0.8650976813742863</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <v>0.8669894478339759</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>0.887494945103485</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>0.887494945103485</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>0.9126902014787172</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>0.9391539043346467</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>0.9391539043346467</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0.968598268031471</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0.9775950435417463</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>0.9775950435417463</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0.9775950435417463</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0.9916512227474058</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -2025,97 +2025,97 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.13673802100952</v>
+        <v>0.2041867823946621</v>
       </c>
       <c r="F3">
-        <v>0.1376392221824333</v>
+        <v>0.2041867823946621</v>
       </c>
       <c r="G3">
-        <v>0.307801846326876</v>
+        <v>0.4720447012993262</v>
       </c>
       <c r="H3">
-        <v>0.3169425089005986</v>
+        <v>0.4720447012993262</v>
       </c>
       <c r="I3">
-        <v>0.3169425089005986</v>
+        <v>0.4720447012993262</v>
       </c>
       <c r="J3">
-        <v>0.3169425089005986</v>
+        <v>0.4720447012993262</v>
       </c>
       <c r="K3">
-        <v>0.3330298178468558</v>
+        <v>0.4720447012993262</v>
       </c>
       <c r="L3">
-        <v>0.3330298178468558</v>
+        <v>0.4720447012993262</v>
       </c>
       <c r="M3">
-        <v>0.4004635991210161</v>
+        <v>0.5442125726212182</v>
       </c>
       <c r="N3">
-        <v>0.4007657993474916</v>
+        <v>0.5442125726212182</v>
       </c>
       <c r="O3">
-        <v>0.4929586612637201</v>
+        <v>0.6635444685108747</v>
       </c>
       <c r="P3">
-        <v>0.517345789950536</v>
+        <v>0.6635444685108747</v>
       </c>
       <c r="Q3">
-        <v>0.5242555676404974</v>
+        <v>0.6635444685108747</v>
       </c>
       <c r="R3">
-        <v>0.5342072539591396</v>
+        <v>0.6635444685108747</v>
       </c>
       <c r="S3">
-        <v>0.5419427347332834</v>
+        <v>0.6635444685108747</v>
       </c>
       <c r="T3">
-        <v>0.6721615516914697</v>
+        <v>0.8553127001328177</v>
       </c>
       <c r="U3">
-        <v>0.7246267430151183</v>
+        <v>0.8989666312815353</v>
       </c>
       <c r="V3">
-        <v>0.7747871593643965</v>
+        <v>0.9382301545194811</v>
       </c>
       <c r="W3">
-        <v>0.79544960263293</v>
+        <v>0.9382301545194811</v>
       </c>
       <c r="X3">
-        <v>0.8483546931093821</v>
+        <v>0.9827220575925243</v>
       </c>
       <c r="Y3">
-        <v>0.8600211977582123</v>
+        <v>0.9827220575925243</v>
       </c>
       <c r="Z3">
-        <v>0.8823838482201556</v>
+        <v>0.9827220575925243</v>
       </c>
       <c r="AA3">
-        <v>0.8865048879959541</v>
+        <v>0.9827220575925243</v>
       </c>
       <c r="AB3">
-        <v>0.9039355007063798</v>
+        <v>0.9827220575925243</v>
       </c>
       <c r="AC3">
-        <v>0.9386490232536149</v>
+        <v>0.9925605109214789</v>
       </c>
       <c r="AD3">
-        <v>0.9386490232536149</v>
+        <v>0.9925605109214789</v>
       </c>
       <c r="AE3">
-        <v>0.9721031929386151</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF3">
-        <v>0.9846734870188737</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG3">
-        <v>0.9846734870188737</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH3">
-        <v>0.9846734870188737</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI3">
-        <v>0.9916688395857949</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ3">
         <v>0.9999999999999998</v>
@@ -2135,100 +2135,100 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1210169907001225</v>
+        <v>0.1578965700604887</v>
       </c>
       <c r="F4">
-        <v>0.1625579983328845</v>
+        <v>0.1792926653641594</v>
       </c>
       <c r="G4">
-        <v>0.3797055447301017</v>
+        <v>0.5022940379681862</v>
       </c>
       <c r="H4">
-        <v>0.3797335398088238</v>
+        <v>0.5022940379681862</v>
       </c>
       <c r="I4">
-        <v>0.3797335398088238</v>
+        <v>0.5022940379681862</v>
       </c>
       <c r="J4">
-        <v>0.3797335398088238</v>
+        <v>0.5022940379681862</v>
       </c>
       <c r="K4">
-        <v>0.3879367540955397</v>
+        <v>0.5022940379681862</v>
       </c>
       <c r="L4">
-        <v>0.3879367540955397</v>
+        <v>0.5022940379681862</v>
       </c>
       <c r="M4">
-        <v>0.4305745435832876</v>
+        <v>0.5255738626468474</v>
       </c>
       <c r="N4">
-        <v>0.4533503368771932</v>
+        <v>0.5255738626468474</v>
       </c>
       <c r="O4">
-        <v>0.5613412846766466</v>
+        <v>0.6610981263637075</v>
       </c>
       <c r="P4">
-        <v>0.6011816031482851</v>
+        <v>0.6795732778935797</v>
       </c>
       <c r="Q4">
-        <v>0.6120522259952343</v>
+        <v>0.6795732778935797</v>
       </c>
       <c r="R4">
-        <v>0.61767701198599</v>
+        <v>0.6795732778935797</v>
       </c>
       <c r="S4">
-        <v>0.6349536793866967</v>
+        <v>0.6795732778935797</v>
       </c>
       <c r="T4">
-        <v>0.7779980710351445</v>
+        <v>0.8753020404109618</v>
       </c>
       <c r="U4">
-        <v>0.7787524413124001</v>
+        <v>0.8753020404109618</v>
       </c>
       <c r="V4">
-        <v>0.8517224849763523</v>
+        <v>0.950677692479228</v>
       </c>
       <c r="W4">
-        <v>0.8517224849763523</v>
+        <v>0.950677692479228</v>
       </c>
       <c r="X4">
-        <v>0.8989671502739723</v>
+        <v>0.9818698538277015</v>
       </c>
       <c r="Y4">
-        <v>0.8989671502739723</v>
+        <v>0.9818698538277015</v>
       </c>
       <c r="Z4">
-        <v>0.9151577967036595</v>
+        <v>0.9818698538277015</v>
       </c>
       <c r="AA4">
-        <v>0.9151577967036595</v>
+        <v>0.9818698538277015</v>
       </c>
       <c r="AB4">
-        <v>0.9547972393907596</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0.9794503660047532</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>0.9794503660047532</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>0.9948953963540796</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>0.9950773704352834</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>0.9950773704352834</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>0.9950773704352834</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>0.9993382458019433</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -2242,103 +2242,103 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02112885300370837</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06807739060675166</v>
+        <v>0.03410149138234103</v>
       </c>
       <c r="F5">
-        <v>0.1689631648624673</v>
+        <v>0.1741572445931217</v>
       </c>
       <c r="G5">
-        <v>0.3093595946311326</v>
+        <v>0.3918276959055144</v>
       </c>
       <c r="H5">
-        <v>0.3093595946311326</v>
+        <v>0.3918276959055144</v>
       </c>
       <c r="I5">
-        <v>0.3093595946311326</v>
+        <v>0.3918276959055144</v>
       </c>
       <c r="J5">
-        <v>0.3093595946311326</v>
+        <v>0.3918276959055144</v>
       </c>
       <c r="K5">
-        <v>0.325812569457082</v>
+        <v>0.3918276959055144</v>
       </c>
       <c r="L5">
-        <v>0.3370694584919074</v>
+        <v>0.3918276959055144</v>
       </c>
       <c r="M5">
-        <v>0.3717283516690398</v>
+        <v>0.4017874202250284</v>
       </c>
       <c r="N5">
-        <v>0.4459278774054934</v>
+        <v>0.4894207295305631</v>
       </c>
       <c r="O5">
-        <v>0.5458811892686446</v>
+        <v>0.6276447544100771</v>
       </c>
       <c r="P5">
-        <v>0.5680330619091896</v>
+        <v>0.6276447544100771</v>
       </c>
       <c r="Q5">
-        <v>0.5876987750172786</v>
+        <v>0.6276447544100771</v>
       </c>
       <c r="R5">
-        <v>0.5952026945536399</v>
+        <v>0.6276447544100771</v>
       </c>
       <c r="S5">
-        <v>0.634299440994514</v>
+        <v>0.646322193908264</v>
       </c>
       <c r="T5">
-        <v>0.76934744888232</v>
+        <v>0.8534862098245924</v>
       </c>
       <c r="U5">
-        <v>0.76934744888232</v>
+        <v>0.8534862098245924</v>
       </c>
       <c r="V5">
-        <v>0.84009754596757</v>
+        <v>0.9343434644200638</v>
       </c>
       <c r="W5">
-        <v>0.84009754596757</v>
+        <v>0.9343434644200638</v>
       </c>
       <c r="X5">
-        <v>0.8835144234260947</v>
+        <v>0.9615073656167782</v>
       </c>
       <c r="Y5">
-        <v>0.8852908462566571</v>
+        <v>0.9615073656167782</v>
       </c>
       <c r="Z5">
-        <v>0.9071153400913112</v>
+        <v>0.9615073656167782</v>
       </c>
       <c r="AA5">
-        <v>0.9071153400913112</v>
+        <v>0.9615073656167782</v>
       </c>
       <c r="AB5">
-        <v>0.9562992395866182</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC5">
-        <v>0.9700294984179313</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD5">
-        <v>0.9773019964591826</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE5">
-        <v>0.9950312486487565</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF5">
-        <v>0.9950312486487565</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG5">
-        <v>0.9950312486487565</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH5">
-        <v>0.9950312486487565</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -2352,97 +2352,97 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02059627655294436</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1129799093791476</v>
+        <v>0.1139761566652302</v>
       </c>
       <c r="F6">
-        <v>0.2135017395031981</v>
+        <v>0.2427646533333408</v>
       </c>
       <c r="G6">
-        <v>0.3827693430321816</v>
+        <v>0.4966773921606086</v>
       </c>
       <c r="H6">
-        <v>0.3827693430321816</v>
+        <v>0.4966773921606086</v>
       </c>
       <c r="I6">
-        <v>0.384412834762299</v>
+        <v>0.4966773921606086</v>
       </c>
       <c r="J6">
-        <v>0.384412834762299</v>
+        <v>0.4966773921606086</v>
       </c>
       <c r="K6">
-        <v>0.392332391923053</v>
+        <v>0.4966773921606086</v>
       </c>
       <c r="L6">
-        <v>0.392332391923053</v>
+        <v>0.4966773921606086</v>
       </c>
       <c r="M6">
-        <v>0.4317831522853833</v>
+        <v>0.5143103814672161</v>
       </c>
       <c r="N6">
-        <v>0.461926390328799</v>
+        <v>0.5150027412797916</v>
       </c>
       <c r="O6">
-        <v>0.5557817619834864</v>
+        <v>0.6316576110709268</v>
       </c>
       <c r="P6">
-        <v>0.5702952091777171</v>
+        <v>0.6316576110709268</v>
       </c>
       <c r="Q6">
-        <v>0.5711868610723857</v>
+        <v>0.6316576110709268</v>
       </c>
       <c r="R6">
-        <v>0.5711868610723857</v>
+        <v>0.6316576110709268</v>
       </c>
       <c r="S6">
-        <v>0.6232823676855166</v>
+        <v>0.672305314061921</v>
       </c>
       <c r="T6">
-        <v>0.7726209841450838</v>
+        <v>0.8899452861348998</v>
       </c>
       <c r="U6">
-        <v>0.7726209841450838</v>
+        <v>0.8899452861348998</v>
       </c>
       <c r="V6">
-        <v>0.8302316195894337</v>
+        <v>0.9406310799238786</v>
       </c>
       <c r="W6">
-        <v>0.8334193581697746</v>
+        <v>0.9406310799238786</v>
       </c>
       <c r="X6">
-        <v>0.8883878469957873</v>
+        <v>0.9865079003473896</v>
       </c>
       <c r="Y6">
-        <v>0.8899291763949693</v>
+        <v>0.9865079003473896</v>
       </c>
       <c r="Z6">
-        <v>0.9069033771493157</v>
+        <v>0.9865079003473896</v>
       </c>
       <c r="AA6">
-        <v>0.9096902774028695</v>
+        <v>0.9865079003473896</v>
       </c>
       <c r="AB6">
-        <v>0.9468659497651749</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.9546641146548319</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.9651585969010813</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.9869068105806847</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.988684701362855</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.988684701362855</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.9888693952760265</v>
+        <v>1</v>
       </c>
       <c r="AI6">
         <v>1</v>
@@ -2465,94 +2465,94 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.201096874088022</v>
+        <v>0.2623026508736602</v>
       </c>
       <c r="F7">
-        <v>0.2059736459707188</v>
+        <v>0.2623026508736602</v>
       </c>
       <c r="G7">
-        <v>0.4919711457377943</v>
+        <v>0.6536590991398468</v>
       </c>
       <c r="H7">
-        <v>0.5239243197878168</v>
+        <v>0.6588536707698491</v>
       </c>
       <c r="I7">
-        <v>0.5516389089011586</v>
+        <v>0.6588536707698491</v>
       </c>
       <c r="J7">
-        <v>0.5516389089011586</v>
+        <v>0.6588536707698491</v>
       </c>
       <c r="K7">
-        <v>0.5600975862130944</v>
+        <v>0.6588536707698491</v>
       </c>
       <c r="L7">
-        <v>0.5600975862130944</v>
+        <v>0.6588536707698491</v>
       </c>
       <c r="M7">
-        <v>0.5600975862130944</v>
+        <v>0.6588536707698491</v>
       </c>
       <c r="N7">
-        <v>0.5614986862900615</v>
+        <v>0.6588536707698491</v>
       </c>
       <c r="O7">
-        <v>0.6438616822961365</v>
+        <v>0.7406740493038253</v>
       </c>
       <c r="P7">
-        <v>0.7550571864877672</v>
+        <v>0.8663214861184224</v>
       </c>
       <c r="Q7">
-        <v>0.7599749870981144</v>
+        <v>0.8663214861184224</v>
       </c>
       <c r="R7">
-        <v>0.7599749870981144</v>
+        <v>0.8663214861184224</v>
       </c>
       <c r="S7">
-        <v>0.7599749870981144</v>
+        <v>0.8663214861184224</v>
       </c>
       <c r="T7">
-        <v>0.8696497651319378</v>
+        <v>0.9896573323659362</v>
       </c>
       <c r="U7">
-        <v>0.9049897172592551</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0.9217890856130837</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0.9217890856130837</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0.9499424259217201</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0.9500425809461291</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0.9546724340689222</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>0.9720091181579003</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0.9824921100662186</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0.9913627561442183</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0.9913627561442183</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0.9913627561442183</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0.9934937794637757</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>0.997400878856033</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0.997400878856033</v>
+        <v>1</v>
       </c>
       <c r="AI7">
         <v>1</v>
@@ -2575,97 +2575,97 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.08590383156008329</v>
+        <v>0.09615020195347374</v>
       </c>
       <c r="F8">
-        <v>0.1171180308337074</v>
+        <v>0.101865807191999</v>
       </c>
       <c r="G8">
-        <v>0.29835170234365</v>
+        <v>0.355653120062758</v>
       </c>
       <c r="H8">
-        <v>0.4438836225114734</v>
+        <v>0.5504041339192827</v>
       </c>
       <c r="I8">
-        <v>0.4438836225114734</v>
+        <v>0.5504041339192827</v>
       </c>
       <c r="J8">
-        <v>0.4530052099607288</v>
+        <v>0.5504041339192827</v>
       </c>
       <c r="K8">
-        <v>0.4530052099607288</v>
+        <v>0.5504041339192827</v>
       </c>
       <c r="L8">
-        <v>0.4530052099607288</v>
+        <v>0.5504041339192827</v>
       </c>
       <c r="M8">
-        <v>0.4621137393283695</v>
+        <v>0.5504041339192827</v>
       </c>
       <c r="N8">
-        <v>0.4621137393283695</v>
+        <v>0.5504041339192827</v>
       </c>
       <c r="O8">
-        <v>0.5194577530037657</v>
+        <v>0.5993279146175245</v>
       </c>
       <c r="P8">
-        <v>0.6010578179839107</v>
+        <v>0.6883614222591157</v>
       </c>
       <c r="Q8">
-        <v>0.6010578179839107</v>
+        <v>0.6883614222591157</v>
       </c>
       <c r="R8">
-        <v>0.6039175525839394</v>
+        <v>0.6883614222591157</v>
       </c>
       <c r="S8">
-        <v>0.6039175525839394</v>
+        <v>0.6883614222591157</v>
       </c>
       <c r="T8">
-        <v>0.7088650821840212</v>
+        <v>0.8160022208797557</v>
       </c>
       <c r="U8">
-        <v>0.8315021909970153</v>
+        <v>0.9728944497129361</v>
       </c>
       <c r="V8">
-        <v>0.8315021909970153</v>
+        <v>0.9728944497129361</v>
       </c>
       <c r="W8">
-        <v>0.871435523327474</v>
+        <v>0.9930279847990907</v>
       </c>
       <c r="X8">
-        <v>0.8848754504420354</v>
+        <v>0.9930279847990907</v>
       </c>
       <c r="Y8">
-        <v>0.9083111221712885</v>
+        <v>0.9930279847990907</v>
       </c>
       <c r="Z8">
-        <v>0.9127891928581077</v>
+        <v>0.9930279847990907</v>
       </c>
       <c r="AA8">
-        <v>0.915979423610387</v>
+        <v>0.9930279847990907</v>
       </c>
       <c r="AB8">
-        <v>0.9243725423842625</v>
+        <v>0.9930279847990907</v>
       </c>
       <c r="AC8">
-        <v>0.9556183691263797</v>
+        <v>0.9987958891158637</v>
       </c>
       <c r="AD8">
-        <v>0.9577193412296472</v>
+        <v>0.9987958891158637</v>
       </c>
       <c r="AE8">
-        <v>0.969181665961995</v>
+        <v>0.9987958891158637</v>
       </c>
       <c r="AF8">
-        <v>0.9976675734505441</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>0.9976675734505441</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>0.9976675734505441</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>0.9976675734505441</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
         <v>1</v>
@@ -2685,97 +2685,97 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04904800211577837</v>
+        <v>0.03803257228282618</v>
       </c>
       <c r="F9">
-        <v>0.06058692219581475</v>
+        <v>0.03803257228282618</v>
       </c>
       <c r="G9">
-        <v>0.2188515930239606</v>
+        <v>0.2941347784330179</v>
       </c>
       <c r="H9">
-        <v>0.3115952335142122</v>
+        <v>0.419413116167791</v>
       </c>
       <c r="I9">
-        <v>0.3121628420644366</v>
+        <v>0.419413116167791</v>
       </c>
       <c r="J9">
-        <v>0.3209264624267592</v>
+        <v>0.419413116167791</v>
       </c>
       <c r="K9">
-        <v>0.321359870678197</v>
+        <v>0.419413116167791</v>
       </c>
       <c r="L9">
-        <v>0.3221579285200953</v>
+        <v>0.419413116167791</v>
       </c>
       <c r="M9">
-        <v>0.376126903167827</v>
+        <v>0.4672712461330309</v>
       </c>
       <c r="N9">
-        <v>0.3805691725134516</v>
+        <v>0.4672712461330309</v>
       </c>
       <c r="O9">
-        <v>0.5243077140488075</v>
+        <v>0.6943695673109465</v>
       </c>
       <c r="P9">
-        <v>0.5578992364766605</v>
+        <v>0.7015406520006926</v>
       </c>
       <c r="Q9">
-        <v>0.5621808884128647</v>
+        <v>0.7015406520006926</v>
       </c>
       <c r="R9">
-        <v>0.6178473856545661</v>
+        <v>0.7527881742163355</v>
       </c>
       <c r="S9">
-        <v>0.6270583614670369</v>
+        <v>0.7527881742163355</v>
       </c>
       <c r="T9">
-        <v>0.7092584782617398</v>
+        <v>0.8570145756572501</v>
       </c>
       <c r="U9">
-        <v>0.7961904342024816</v>
+        <v>0.9706888978437929</v>
       </c>
       <c r="V9">
-        <v>0.8030427849610149</v>
+        <v>0.9706888978437929</v>
       </c>
       <c r="W9">
-        <v>0.8427722982667211</v>
+        <v>0.9901155241023792</v>
       </c>
       <c r="X9">
-        <v>0.8464317777112624</v>
+        <v>0.9901155241023792</v>
       </c>
       <c r="Y9">
-        <v>0.8623506024015771</v>
+        <v>0.9901155241023792</v>
       </c>
       <c r="Z9">
-        <v>0.8699686091941311</v>
+        <v>0.9901155241023792</v>
       </c>
       <c r="AA9">
-        <v>0.8993885678637372</v>
+        <v>0.9901155241023792</v>
       </c>
       <c r="AB9">
-        <v>0.9047607642486016</v>
+        <v>0.9901155241023792</v>
       </c>
       <c r="AC9">
-        <v>0.9397112450210069</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>0.9508879116955654</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>0.9522981245775424</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>0.9789399063990128</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>0.9941727506035832</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>0.9941801926416999</v>
+        <v>1</v>
       </c>
       <c r="AI9">
-        <v>0.9942221823576363</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
         <v>1</v>
@@ -2795,100 +2795,100 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1036299280280062</v>
+        <v>0.1404549804345659</v>
       </c>
       <c r="F10">
-        <v>0.1122883958281123</v>
+        <v>0.1404549804345659</v>
       </c>
       <c r="G10">
-        <v>0.249542560083181</v>
+        <v>0.3448453927876692</v>
       </c>
       <c r="H10">
-        <v>0.3444111710788846</v>
+        <v>0.4686410033304468</v>
       </c>
       <c r="I10">
-        <v>0.3444111710788846</v>
+        <v>0.4686410033304468</v>
       </c>
       <c r="J10">
-        <v>0.3444111710788846</v>
+        <v>0.4686410033304468</v>
       </c>
       <c r="K10">
-        <v>0.3444111710788846</v>
+        <v>0.4686410033304468</v>
       </c>
       <c r="L10">
-        <v>0.3444111710788846</v>
+        <v>0.4686410033304468</v>
       </c>
       <c r="M10">
-        <v>0.3696298517798958</v>
+        <v>0.4686410033304468</v>
       </c>
       <c r="N10">
-        <v>0.3735905665310038</v>
+        <v>0.4686410033304468</v>
       </c>
       <c r="O10">
-        <v>0.4780769102146962</v>
+        <v>0.6107244313073849</v>
       </c>
       <c r="P10">
-        <v>0.5402677627942254</v>
+        <v>0.6723843078409486</v>
       </c>
       <c r="Q10">
-        <v>0.5524295109581857</v>
+        <v>0.6723843078409486</v>
       </c>
       <c r="R10">
-        <v>0.5712089534322302</v>
+        <v>0.6723843078409486</v>
       </c>
       <c r="S10">
-        <v>0.5712089534322302</v>
+        <v>0.6723843078409486</v>
       </c>
       <c r="T10">
-        <v>0.7114246779477184</v>
+        <v>0.8824060342594193</v>
       </c>
       <c r="U10">
-        <v>0.7988337761790827</v>
+        <v>0.9920176149473859</v>
       </c>
       <c r="V10">
-        <v>0.8139104142224547</v>
+        <v>0.9920176149473859</v>
       </c>
       <c r="W10">
-        <v>0.834416175893453</v>
+        <v>0.9920176149473859</v>
       </c>
       <c r="X10">
-        <v>0.8623201989096961</v>
+        <v>0.9920176149473859</v>
       </c>
       <c r="Y10">
-        <v>0.8745412027450642</v>
+        <v>0.9920176149473859</v>
       </c>
       <c r="Z10">
-        <v>0.892484013497013</v>
+        <v>0.9920176149473859</v>
       </c>
       <c r="AA10">
-        <v>0.892484013497013</v>
+        <v>0.9920176149473859</v>
       </c>
       <c r="AB10">
-        <v>0.9029383574902413</v>
+        <v>0.9920176149473859</v>
       </c>
       <c r="AC10">
-        <v>0.9350047343405653</v>
+        <v>0.9963967445203372</v>
       </c>
       <c r="AD10">
-        <v>0.9398810232685602</v>
+        <v>0.9963967445203372</v>
       </c>
       <c r="AE10">
-        <v>0.9552373739423274</v>
+        <v>0.9963967445203372</v>
       </c>
       <c r="AF10">
-        <v>0.9868957114158561</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0.990699861717552</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0.990699861717552</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>0.9934146082188429</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -2902,103 +2902,103 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.006354245366700436</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.08522281056768265</v>
+        <v>0.08090149535797071</v>
       </c>
       <c r="F11">
-        <v>0.1695634544146407</v>
+        <v>0.1692098999210972</v>
       </c>
       <c r="G11">
-        <v>0.3082696446127893</v>
+        <v>0.3311065497862321</v>
       </c>
       <c r="H11">
-        <v>0.3082696446127893</v>
+        <v>0.3311065497862321</v>
       </c>
       <c r="I11">
-        <v>0.3082696446127893</v>
+        <v>0.3311065497862321</v>
       </c>
       <c r="J11">
-        <v>0.3082696446127893</v>
+        <v>0.3311065497862321</v>
       </c>
       <c r="K11">
-        <v>0.3082696446127893</v>
+        <v>0.3311065497862321</v>
       </c>
       <c r="L11">
-        <v>0.3148621311863306</v>
+        <v>0.3311065497862321</v>
       </c>
       <c r="M11">
-        <v>0.3286906717215708</v>
+        <v>0.3311065497862321</v>
       </c>
       <c r="N11">
-        <v>0.4887686973721765</v>
+        <v>0.5219317394230478</v>
       </c>
       <c r="O11">
-        <v>0.5835314104608964</v>
+        <v>0.6243472732139943</v>
       </c>
       <c r="P11">
-        <v>0.5835314104608964</v>
+        <v>0.6243472732139943</v>
       </c>
       <c r="Q11">
-        <v>0.6078376817356176</v>
+        <v>0.6313942092201844</v>
       </c>
       <c r="R11">
-        <v>0.6078376817356176</v>
+        <v>0.6313942092201844</v>
       </c>
       <c r="S11">
-        <v>0.6806224766685178</v>
+        <v>0.7040608203749013</v>
       </c>
       <c r="T11">
-        <v>0.8664479900314079</v>
+        <v>0.92973735555771</v>
       </c>
       <c r="U11">
-        <v>0.8664479900314079</v>
+        <v>0.92973735555771</v>
       </c>
       <c r="V11">
-        <v>0.8912337169362692</v>
+        <v>0.9374332742540447</v>
       </c>
       <c r="W11">
-        <v>0.8912337169362692</v>
+        <v>0.9374332742540447</v>
       </c>
       <c r="X11">
-        <v>0.9239716075502624</v>
+        <v>0.9558931015834159</v>
       </c>
       <c r="Y11">
-        <v>0.9239716075502624</v>
+        <v>0.9558931015834159</v>
       </c>
       <c r="Z11">
-        <v>0.9329614637382686</v>
+        <v>0.9558931015834159</v>
       </c>
       <c r="AA11">
-        <v>0.9329614637382686</v>
+        <v>0.9558931015834159</v>
       </c>
       <c r="AB11">
-        <v>0.9846469053672618</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC11">
-        <v>0.9938899474259452</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD11">
-        <v>0.9938899474259452</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE11">
-        <v>0.998581162555641</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3060,34 +3060,34 @@
         <v>36</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <v>0.6255125999862268</v>
+      </c>
+      <c r="F2">
         <v>14</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.5110131976701903</v>
-      </c>
       <c r="G2">
+        <v>850</v>
+      </c>
+      <c r="H2">
         <v>12</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>5</v>
-      </c>
-      <c r="I2">
-        <v>850</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -3101,34 +3101,34 @@
         <v>37</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.5442125726212182</v>
       </c>
       <c r="F3">
-        <v>0.517345789950536</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>850</v>
       </c>
       <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>5</v>
-      </c>
-      <c r="I3">
-        <v>850</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -3142,34 +3142,34 @@
         <v>38</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.5022940379681862</v>
       </c>
       <c r="F4">
-        <v>0.5613412846766466</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>850</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>5</v>
-      </c>
-      <c r="I4">
-        <v>850</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -3183,34 +3183,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
         <v>0.5</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.6276447544100771</v>
+      </c>
+      <c r="F5">
         <v>14</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.5458811892686446</v>
-      </c>
       <c r="G5">
-        <v>12</v>
+        <v>850</v>
       </c>
       <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>5</v>
-      </c>
-      <c r="I5">
-        <v>850</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -3224,34 +3224,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.5143103814672161</v>
       </c>
       <c r="F6">
-        <v>0.5557817619834864</v>
+        <v>12</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>850</v>
       </c>
       <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>5</v>
-      </c>
-      <c r="I6">
-        <v>850</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -3265,34 +3265,34 @@
         <v>41</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.6536590991398468</v>
       </c>
       <c r="F7">
-        <v>0.5239243197878168</v>
+        <v>6</v>
       </c>
       <c r="G7">
+        <v>850</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>5</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>850</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -3306,34 +3306,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.5504041339192827</v>
       </c>
       <c r="F8">
-        <v>0.5194577530037657</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>850</v>
       </c>
       <c r="H8">
         <v>5</v>
       </c>
-      <c r="I8">
-        <v>850</v>
+      <c r="I8" t="s">
+        <v>58</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
         <v>59</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -3347,34 +3347,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0.03803257228282618</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
         <v>0.5</v>
       </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0.6943695673109465</v>
+      </c>
+      <c r="F9">
         <v>14</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.5243077140488075</v>
-      </c>
       <c r="G9">
-        <v>11</v>
+        <v>850</v>
       </c>
       <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>5</v>
-      </c>
-      <c r="I9">
-        <v>850</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -3388,34 +3388,34 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.6107244313073849</v>
       </c>
       <c r="F10">
-        <v>0.5402677627942254</v>
+        <v>14</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>850</v>
       </c>
       <c r="H10">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>5</v>
-      </c>
-      <c r="I10">
-        <v>850</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -3429,34 +3429,34 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>0.5</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.5219317394230478</v>
       </c>
       <c r="F11">
-        <v>0.5835314104608964</v>
+        <v>13</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>850</v>
       </c>
       <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>5</v>
-      </c>
-      <c r="I11">
-        <v>850</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -3524,34 +3524,34 @@
         <v>36</v>
       </c>
       <c r="B2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
+        <v>0.7</v>
+      </c>
+      <c r="E2">
+        <v>0.8689873234610264</v>
+      </c>
+      <c r="F2">
         <v>19</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.7212799385110522</v>
-      </c>
       <c r="G2">
+        <v>850</v>
+      </c>
+      <c r="H2">
         <v>17</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>5</v>
-      </c>
-      <c r="I2">
-        <v>850</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -3565,34 +3565,34 @@
         <v>37</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>0.7</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8553127001328177</v>
       </c>
       <c r="F3">
-        <v>0.7246267430151183</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>850</v>
       </c>
       <c r="H3">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>5</v>
-      </c>
-      <c r="I3">
-        <v>850</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -3606,34 +3606,34 @@
         <v>38</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
+        <v>0.7</v>
+      </c>
+      <c r="E4">
+        <v>0.8753020404109618</v>
+      </c>
+      <c r="F4">
         <v>19</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.7779980710351445</v>
-      </c>
       <c r="G4">
+        <v>850</v>
+      </c>
+      <c r="H4">
         <v>17</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>5</v>
-      </c>
-      <c r="I4">
-        <v>850</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -3647,34 +3647,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
         <v>0.7</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.8534862098245924</v>
+      </c>
+      <c r="F5">
         <v>19</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.76934744888232</v>
-      </c>
       <c r="G5">
-        <v>17</v>
+        <v>850</v>
       </c>
       <c r="H5">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>5</v>
-      </c>
-      <c r="I5">
-        <v>850</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -3688,34 +3688,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
+        <v>0.7</v>
+      </c>
+      <c r="E6">
+        <v>0.8899452861348998</v>
+      </c>
+      <c r="F6">
         <v>19</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.7726209841450838</v>
-      </c>
       <c r="G6">
+        <v>850</v>
+      </c>
+      <c r="H6">
         <v>17</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>5</v>
-      </c>
-      <c r="I6">
-        <v>850</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -3729,34 +3729,34 @@
         <v>41</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>0.7</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.7406740493038253</v>
       </c>
       <c r="F7">
-        <v>0.7550571864877672</v>
+        <v>14</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>850</v>
       </c>
       <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>5</v>
-      </c>
-      <c r="I7">
-        <v>850</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -3770,34 +3770,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
+        <v>0.7</v>
+      </c>
+      <c r="E8">
+        <v>0.8160022208797557</v>
+      </c>
+      <c r="F8">
         <v>19</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.7088650821840212</v>
-      </c>
       <c r="G8">
+        <v>850</v>
+      </c>
+      <c r="H8">
         <v>17</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>5</v>
-      </c>
-      <c r="I8">
-        <v>850</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -3811,34 +3811,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0.03803257228282618</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
         <v>0.7</v>
       </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>19</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.7015406520006926</v>
       </c>
       <c r="F9">
-        <v>0.7092584782617398</v>
+        <v>15</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>850</v>
       </c>
       <c r="H9">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>5</v>
-      </c>
-      <c r="I9">
-        <v>850</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -3852,34 +3852,34 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
+        <v>0.7</v>
+      </c>
+      <c r="E10">
+        <v>0.8824060342594193</v>
+      </c>
+      <c r="F10">
         <v>19</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.7114246779477184</v>
-      </c>
       <c r="G10">
+        <v>850</v>
+      </c>
+      <c r="H10">
         <v>17</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>5</v>
-      </c>
-      <c r="I10">
-        <v>850</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -3893,34 +3893,34 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>0.7</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.7040608203749013</v>
       </c>
       <c r="F11">
-        <v>0.8664479900314079</v>
+        <v>18</v>
       </c>
       <c r="G11">
-        <v>17</v>
+        <v>850</v>
       </c>
       <c r="H11">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>5</v>
-      </c>
-      <c r="I11">
-        <v>850</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -3988,34 +3988,34 @@
         <v>36</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>0.8</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8689873234610264</v>
       </c>
       <c r="F2">
-        <v>0.8650976813742863</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>850</v>
       </c>
       <c r="H2">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>5</v>
-      </c>
-      <c r="I2">
-        <v>850</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -4029,34 +4029,34 @@
         <v>37</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>0.8</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8553127001328177</v>
       </c>
       <c r="F3">
-        <v>0.8483546931093821</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>850</v>
       </c>
       <c r="H3">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>5</v>
-      </c>
-      <c r="I3">
-        <v>850</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -4070,34 +4070,34 @@
         <v>38</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>0.8</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8753020404109618</v>
       </c>
       <c r="F4">
-        <v>0.8517224849763523</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>850</v>
       </c>
       <c r="H4">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>5</v>
-      </c>
-      <c r="I4">
-        <v>850</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -4111,34 +4111,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
         <v>0.8</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8534862098245924</v>
       </c>
       <c r="F5">
-        <v>0.84009754596757</v>
+        <v>19</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>850</v>
       </c>
       <c r="H5">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>5</v>
-      </c>
-      <c r="I5">
-        <v>850</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -4152,34 +4152,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>0.8</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.8899452861348998</v>
       </c>
       <c r="F6">
-        <v>0.8302316195894337</v>
+        <v>19</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>850</v>
       </c>
       <c r="H6">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>5</v>
-      </c>
-      <c r="I6">
-        <v>850</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -4193,34 +4193,34 @@
         <v>41</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>0.8</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.8663214861184224</v>
       </c>
       <c r="F7">
-        <v>0.8696497651319378</v>
+        <v>15</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>850</v>
       </c>
       <c r="H7">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>5</v>
-      </c>
-      <c r="I7">
-        <v>850</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -4234,34 +4234,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>0.8</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.8160022208797557</v>
       </c>
       <c r="F8">
-        <v>0.8315021909970153</v>
+        <v>19</v>
       </c>
       <c r="G8">
-        <v>18</v>
+        <v>850</v>
       </c>
       <c r="H8">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>5</v>
-      </c>
-      <c r="I8">
-        <v>850</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -4275,34 +4275,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0.03803257228282618</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
         <v>0.8</v>
       </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8570145756572501</v>
       </c>
       <c r="F9">
-        <v>0.8030427849610149</v>
+        <v>19</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>850</v>
       </c>
       <c r="H9">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>5</v>
-      </c>
-      <c r="I9">
-        <v>850</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -4316,34 +4316,34 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>0.8</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.8824060342594193</v>
       </c>
       <c r="F10">
-        <v>0.8139104142224547</v>
+        <v>19</v>
       </c>
       <c r="G10">
-        <v>19</v>
+        <v>850</v>
       </c>
       <c r="H10">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>5</v>
-      </c>
-      <c r="I10">
-        <v>850</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -4357,34 +4357,34 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
+        <v>0.8</v>
+      </c>
+      <c r="E11">
+        <v>0.92973735555771</v>
+      </c>
+      <c r="F11">
         <v>19</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.8664479900314079</v>
-      </c>
       <c r="G11">
+        <v>850</v>
+      </c>
+      <c r="H11">
         <v>17</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>5</v>
-      </c>
-      <c r="I11">
-        <v>850</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -4452,34 +4452,34 @@
         <v>36</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>0.9</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.923195496575949</v>
       </c>
       <c r="F2">
-        <v>0.9126902014787172</v>
+        <v>21</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>850</v>
       </c>
       <c r="H2">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>5</v>
-      </c>
-      <c r="I2">
-        <v>850</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -4493,34 +4493,34 @@
         <v>37</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>0.9</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9382301545194811</v>
       </c>
       <c r="F3">
-        <v>0.9039355007063798</v>
+        <v>21</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>850</v>
       </c>
       <c r="H3">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>5</v>
-      </c>
-      <c r="I3">
-        <v>850</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -4534,34 +4534,34 @@
         <v>38</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>0.9</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.950677692479228</v>
       </c>
       <c r="F4">
-        <v>0.9151577967036595</v>
+        <v>21</v>
       </c>
       <c r="G4">
-        <v>23</v>
+        <v>850</v>
       </c>
       <c r="H4">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>5</v>
-      </c>
-      <c r="I4">
-        <v>850</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -4575,34 +4575,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
         <v>0.9</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9343434644200638</v>
       </c>
       <c r="F5">
-        <v>0.9071153400913112</v>
+        <v>21</v>
       </c>
       <c r="G5">
-        <v>23</v>
+        <v>850</v>
       </c>
       <c r="H5">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>5</v>
-      </c>
-      <c r="I5">
-        <v>850</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -4616,34 +4616,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>0.9</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9406310799238786</v>
       </c>
       <c r="F6">
-        <v>0.9069033771493157</v>
+        <v>21</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>850</v>
       </c>
       <c r="H6">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>5</v>
-      </c>
-      <c r="I6">
-        <v>850</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -4657,34 +4657,34 @@
         <v>41</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>0.9</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9896573323659362</v>
       </c>
       <c r="F7">
-        <v>0.9049897172592551</v>
+        <v>19</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>850</v>
       </c>
       <c r="H7">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>5</v>
-      </c>
-      <c r="I7">
-        <v>850</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -4698,34 +4698,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>0.9</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9728944497129361</v>
       </c>
       <c r="F8">
-        <v>0.9083111221712885</v>
+        <v>20</v>
       </c>
       <c r="G8">
-        <v>22</v>
+        <v>850</v>
       </c>
       <c r="H8">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>5</v>
-      </c>
-      <c r="I8">
-        <v>850</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -4739,34 +4739,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0.03803257228282618</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
         <v>0.9</v>
       </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>27</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.9706888978437929</v>
       </c>
       <c r="F9">
-        <v>0.9047607642486016</v>
+        <v>20</v>
       </c>
       <c r="G9">
-        <v>24</v>
+        <v>850</v>
       </c>
       <c r="H9">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>5</v>
-      </c>
-      <c r="I9">
-        <v>850</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -4780,34 +4780,34 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>0.9</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.9920176149473859</v>
       </c>
       <c r="F10">
-        <v>0.9029383574902413</v>
+        <v>20</v>
       </c>
       <c r="G10">
-        <v>25</v>
+        <v>850</v>
       </c>
       <c r="H10">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>5</v>
-      </c>
-      <c r="I10">
-        <v>850</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -4821,34 +4821,34 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>0.9</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.92973735555771</v>
       </c>
       <c r="F11">
-        <v>0.9239716075502624</v>
+        <v>19</v>
       </c>
       <c r="G11">
-        <v>21</v>
+        <v>850</v>
       </c>
       <c r="H11">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>5</v>
-      </c>
-      <c r="I11">
-        <v>850</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
